--- a/storage/ubicaciones.xlsx
+++ b/storage/ubicaciones.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ignug\siga_backend\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D80C925-6157-404A-9D47-C9033B03F851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830A5AC1-D0C9-4CEC-9998-7D7DF9837AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="todo" sheetId="6" r:id="rId1"/>
-    <sheet name="paises" sheetId="3" r:id="rId2"/>
-    <sheet name="provincias" sheetId="4" r:id="rId3"/>
-    <sheet name="cantones" sheetId="5" r:id="rId4"/>
-    <sheet name="Result 1" sheetId="1" r:id="rId5"/>
+    <sheet name="todo (2)" sheetId="7" r:id="rId1"/>
+    <sheet name="todo" sheetId="6" r:id="rId2"/>
+    <sheet name="paises" sheetId="3" r:id="rId3"/>
+    <sheet name="provincias" sheetId="4" r:id="rId4"/>
+    <sheet name="cantones" sheetId="5" r:id="rId5"/>
+    <sheet name="Result 1" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Result 1'!$A$1:$F$499</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Result 1'!$A$1:$F$499</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3986" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4483" uniqueCount="1477">
   <si>
     <t>id</t>
   </si>
@@ -5297,2498 +5298,4486 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFFB771-9F73-4435-B947-FCC4C2779CF8}">
-  <dimension ref="A1:A497"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE55AE7B-E0FF-422C-A568-3E73C8E0D41A}">
+  <dimension ref="A1:B497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection sqref="A1:A497"/>
+      <selection activeCell="B1" sqref="B1:B497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="str">
+        <f>_xlfn.CONCAT("DB::select(""",A1,""");")</f>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'1','AFGANISTÁN');");</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B65" si="0">_xlfn.CONCAT("DB::select(""",A2,""");")</f>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'2','ALBANIA');");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'3','ALEMANIA');");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'4','ANDORRA');");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'5','ANGOLA');");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'6','ANGUILA');");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'7','ANTIGUA Y BARBUDA');");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'8','ARABIA SAUDITA');");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'9','ARGELIA');");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'10','ARGENTINA');");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'11','ARMENIA');");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'12','ARUBA');");</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'13','AUSTRALIA');");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'14','AUSTRIA');");</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'15','AZERBAIYÁN');");</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'16','BAHAMAS');");</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'17','BAHREIN');");</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'18','BANGLADESH');");</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'19','BARBADOS');");</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'20','BÉLGICA');");</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'21','BELICE');");</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'22','BENIN');");</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'23','BERMUDAS');");</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'24','BIELORRUSIA');");</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'25','BOLIVIA');");</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'26','BONAIRE, SAN EUSTAQUIO Y SABA');");</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'27','BOSNIA Y HERZEGOVINA');");</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'28','BOTSWANA');");</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'29','BRASIL');");</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'30','BRUNEI DARUSSALAM');");</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'31','BULGARIA');");</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'32','BURKINA FASO');");</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'33','BURUNDI');");</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'34','BUTÁN');");</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'35','CABO VERDE');");</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'36','CAMBOYA');");</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'37','CAMERÚN');");</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'38','CANADA');");</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'39','CHAD');");</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'40','CHILE');");</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'41','CHINA');");</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'42','CHIPRE');");</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'43','COLOMBIA');");</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'44','COMORAS');");</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'45','CONGO');");</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'46','COREA DEL NORTE');");</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'47','COREA DEL SUR');");</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'48','COSTA DE MARﬁL');");</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'49','COSTA RICA');");</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'50','CROACIA');");</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'51','CUBA');");</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'52','CURAÇAO');");</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'53','DINAMARCA');");</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'54','DJIBOUTI');");</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'55','DOMINICA');");</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'56','ECUADOR');");</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'57','EGIPTO');");</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'58','EL SALVADOR');");</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'59','EL VATICANO');");</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'60','EMIRATOS ÁRABES UNIDOS');");</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'61','ERITREA');");</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'62','ESLOVAQUIA');");</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'63','ESLOVENIA');");</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'64','ESPAÑA');");</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'65','ESTADO DE PALESTINA');");</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="str">
+        <f t="shared" ref="B66:B129" si="1">_xlfn.CONCAT("DB::select(""",A66,""");")</f>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'66','ESTADOS UNIDOS DE AMÉRICA');");</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'67','ESTONIA');");</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'68','ETIOPÍA');");</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'69','FIYI');");</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'70','FILIPINAS');");</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'71','FINLANDIA');");</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'72','FRANCIA');");</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'73','GABÓN');");</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'74','GAMBIA');");</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'75','GEORGIA');");</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'76','GHANA');");</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'77','GIBRALTAR');");</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'78','GRANADA');");</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'79','GRECIA');");</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'80','GROENLANDIA');");</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'81','GUADALUPE');");</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'82','GUAM');");</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'83','GUATEMALA');");</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'84','GUAYANA FRANCESA');");</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'85','GUERNSEY');");</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'86','GUINEA');");</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'87','GUINEA ECUATORIAL');");</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'88','GUINEA-BISSAU');");</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'89','GUYANA');");</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'90','HAITÍ');");</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'91','HONDURAS');");</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'92','HONG KONG');");</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'93','HUNGRÍA');");</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'94','INDIA');");</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'95','INDONESIA');");</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'96','IRAK');");</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'97','IRÁN');");</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'98','IRLANDA');");</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'99','ISLA DE MAN');");</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'100','ISLA NORFOLK');");</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'101','ISLANDIA');");</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'102','ISLAS ÅLAND');");</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'103','ISLAS CAIMÁN');");</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'104','ISLAS COOK');");</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'106','ISLAS FEROE');");</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'107','ISLAS MALVINAS (FALKLAND)');");</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'108','ISLAS MARIANAS DEL NORTE');");</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'109','ISLAS MARSHALL');");</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'110','ISLAS SALOMÓN');");</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'111','ISLAS TURCAS Y CAICOS');");</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'112','ISLAS VÍRGENES AMERICANAS');");</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'113','ISLAS VÍRGENES BRITÁNICAS');");</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'114','ISLAS WALLIS Y FUTUNA');");</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'115','ISRAEL');");</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'116','ITALIA');");</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'117','JAMAICA');");</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'118','JAPÓN');");</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'119','JERSEY');");</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'120','JORDANIA');");</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'121','KAZAJSTÁN');");</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'122','KENYA');");</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'123','KIRGUISTÁN');");</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'124','KIRIBATI');");</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'125','KUWAIT');");</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'126','LA EX REPÚBLICA YUGOSLAVA DE MACEDONIA');");</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'127','LESOTO');");</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'128','LETONIA');");</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'129','LÍBANO');");</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'130','LIBERIA');");</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" t="str">
+        <f t="shared" ref="B130:B193" si="2">_xlfn.CONCAT("DB::select(""",A130,""");")</f>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'131','LIBIA');");</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'132','LIECHTENSTEIN');");</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'133','LITUANIA');");</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'134','LUXEMBURGO');");</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'135','MACAO');");</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'136','MADAGASCAR');");</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'137','MALASIA');");</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'138','MALAUI');");</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'139','MALDIVAS');");</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'140','MALÍ');");</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'141','MALTA');");</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'142','MARRUECOS');");</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'143','MARTINICA');");</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'144','MAURICIO');");</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'145','MAURITANIA');");</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'146','MAYOTTE');");</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'147','MÉXICO');");</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'148','MICRONESIA');");</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'149','MÓNACO');");</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'150','MONGOLIA');");</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'151','MONTENEGRO');");</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'152','MONTSERRAT');");</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'153','MOZAMBIQUE');");</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'154','MYANMAR');");</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'155','NAMIBIA');");</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'156','NAURU');");</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'157','NEPAL');");</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'158','NICARAGUA');");</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'159','NÍGER');");</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B159" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'160','NIGERIA');");</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'161','NIUE');");</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'162','NORUEGA');");</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'163','NUEVA CALEDONIA');");</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'164','NUEVA ZELANDA');");</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'165','OMÁN');");</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'166','PAÍSES BAJOS');");</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'167','PAKISTÁN');");</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'168','PALAU');");</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'169','PANAMÁ');");</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'170','PAPÚA NUEVA GUINEA');");</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'171','PARAGUAY');");</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'172','PERÚ');");</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'173','PITCAIRN');");</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'174','POLINESIA FRANCÉS');");</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'175','POLONIA');");</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'176','PORTUGAL');");</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'177','PUERTO RICO');");</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'178','QATAR');");</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'179','REINO UNIDO DE GRAN BRETAÑA E IRLANDA DEL NORTE');");</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'180','REPÚBLICA ÁRABE SIRIA');");</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'181','REPÚBLICA CENTROAFRICANA');");</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'182','REPÚBLICA CHECA');");</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'183','REPÚBLICA DE MOLDAVIA');");</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'184','REPÚBLICA DEMOCRÁTICA DEL CONGO');");</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'185','REPÚBLICA DEMOCRÁTICA POPULAR LAO');");</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'186','REPÚBLICA DOMINICANA');");</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'187','REPÚBLICA UNIDA DE TANZANIA');");</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'188','RÉUNION');");</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'189','RUMANIA');");</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'190','RUSIA');");</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'191','RWANDA');");</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'192','SÁHARA OCCIDENTAL');");</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'193','SAINT-BARTHÉLEMY');");</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" t="str">
+        <f t="shared" si="2"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'194','SAINT-MARTIN');");</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" t="str">
+        <f t="shared" ref="B194:B257" si="3">_xlfn.CONCAT("DB::select(""",A194,""");")</f>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'195','SAMOA');");</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'196','SAMOA AMERICANA');");</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'197','SAN CRISTÓBAL Y NIEVES');");</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'198','SAN MARINO');");</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'199','SAN PEDRO Y MIQUELÓN');");</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'200','SAN VICENTE Y LAS GRANADINAS');");</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'201','SANTA ELENA');");</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'202','SANTA LUCÍA');");</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'203','SANTO TOMÉ Y PRÍNCIPE');");</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'205','SENEGAL');");</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'206','SERBIA');");</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'207','SEYCHELLES');");</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'208','SIERRA LEONA');");</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'209','SINGAPUR');");</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'210','SINT MAARTEN');");</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'211','SOMALIA');");</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'212','SRI LANKA');");</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'213','SUDÁFRICA');");</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'214','SUDÁN');");</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'215','SUDÁN DEL SUR');");</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'216','SUECIA');");</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'217','SUIZA');");</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'218','SURINAME');");</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'219','SVALBARD Y JAN MAYEN');");</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'220','SWAZILANDIA');");</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'221','TAILANDIA');");</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'222','TAYIKISTÁN');");</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'223','TIMOR-LESTE');");</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'224','TOGO');");</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'225','TOKELAU');");</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'226','TONGA');");</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'227','TRINIDAD Y TOBAGO');");</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'228','TÚNEZ');");</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'229','TURKMENISTÁN');");</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'230','TURQUÍA');");</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'231','TUVALU');");</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'232','UCRANIA');");</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'233','UGANDA');");</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'234','URUGUAY');");</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'235','UZBEKISTÁN');");</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'236','VANUATU');");</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'237','VENEZUELA');");</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'238','VIET NAM');");</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'239','YEMEN');");</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'240','ZAMBIA');");</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'241','ZIMBABWE');");</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'242','ANTÁRTIDA');");</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'243','ISLA BOUVET');");</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'244','TERRITORIO BRITÁNICO DE LA OCÉANO ÍNDICO');");</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'245','TAIWÁN');");</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'246','ISLA DE NAVIDAD');");</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'247','ISLAS COCOS');");</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'248','GEORGIA DEL SUR Y LAS ISLAS SANDWICH DEL SUR');");</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'249','TERRITORIOS AUSTRALES FRANCESES');");</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'999','NO REGISTRA');");</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'01','AZUAY');");</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'02','BOLIVAR');");</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'03','CAÑAR');");</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'04','CARCHI');");</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'05','COTOPAXI');");</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'06','CHIMBORAZO');");</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'07','EL ORO');");</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'08','ESMERALDAS');");</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257" t="str">
+        <f t="shared" si="3"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'09','GUAYAS');");</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258" t="str">
+        <f t="shared" ref="B258:B321" si="4">_xlfn.CONCAT("DB::select(""",A258,""");")</f>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'10','IMBABURA');");</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'11','LOJA');");</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'12','LOS RIOS');");</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'13','MANABI');");</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'14','MORONA SANTIAGO');");</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'15','NAPO');");</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B264" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'16','PASTAZA');");</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'17','PICHINCHA');");</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B266" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'18','TUNGURAHUA');");</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'19','ZAMORA CHINCHIPE');");</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'20','GALAPAGOS');");</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'21','SUCUMBIOS');");</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B270" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'22','ORELLANA');");</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'23','SANTO DOMINGO DE LOS TSACHILAS');");</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'24','SANTA ELENA');");</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'90','ZONAS NO DELIMITADAS');");</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0101','CUENCA');");</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0102','GIRÓN');");</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0103','GUALACEO');");</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0104','NABÓN');");</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0105','PAUTE');");</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0106','PUCARA');");</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0107','SAN FERNANDO');");</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0108','SANTA ISABEL');");</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0109','SIGSIG');");</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0110','OÑA');");</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0111','CHORDELEG');");</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0112','EL PAN');");</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0113','SEVILLA DE ORO');");</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0114','GUACHAPALA');");</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0115','CAMILO PONCE ENRÍQUEZ');");</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,250,'0201','GUARANDA');");</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,250,'0202','CHILLANES');");</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,250,'0203','CHIMBO');");</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,250,'0204','ECHEANDÍA');");</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,250,'0205','SAN MIGUEL');");</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,250,'0206','CALUMA');");</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,250,'0207','LAS NAVES');");</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,251,'0301','AZOGUES');");</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B297" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,251,'0302','BIBLIÁN');");</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B298" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,251,'0303','CAÑAR');");</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B299" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,251,'0304','LA TRONCAL');");</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B300" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,251,'0305','EL TAMBO');");</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B301" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,251,'0306','DÉLEG');");</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B302" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,251,'0307','SUSCAL');");</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B303" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,252,'0401','TULCÁN');");</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B304" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,252,'0402','BOLÍVAR');");</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B305" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,252,'0403','ESPEJO');");</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B306" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,252,'0404','MIRA');");</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B307" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,252,'0405','MONTÚFAR');");</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B308" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,252,'0406','SAN PEDRO DE HUACA');");</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B309" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,253,'0501','LATACUNGA');");</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B310" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,253,'0502','LA MANÁ');");</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B311" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,253,'0503','PANGUA');");</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B312" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,253,'0504','PUJILI');");</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B313" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,253,'0505','SALCEDO');");</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B314" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,253,'0506','SAQUISILÍ');");</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B315" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,253,'0507','SIGCHOS');");</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B316" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0601','RIOBAMBA');");</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B317" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0602','ALAUSI');");</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B318" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0603','COLTA');");</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B319" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0604','CHAMBO');");</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B320" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0605','CHUNCHI');");</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B321" t="str">
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0606','GUAMOTE');");</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B322" t="str">
+        <f t="shared" ref="B322:B385" si="5">_xlfn.CONCAT("DB::select(""",A322,""");")</f>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0607','GUANO');");</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B323" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0608','PALLATANGA');");</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B324" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0609','PENIPE');");</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B325" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0610','CUMANDÁ');");</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B326" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0701','MACHALA');");</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B327" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0702','ARENILLAS');");</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B328" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0703','ATAHUALPA');");</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B329" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0704','BALSAS');");</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B330" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0705','CHILLA');");</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B331" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0706','EL GUABO');");</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B332" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0707','HUAQUILLAS');");</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B333" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0708','MARCABELÍ');");</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B334" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0709','PASAJE');");</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B335" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0710','PIÑAS');");</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B336" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0711','PORTOVELO');");</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0712','SANTA ROSA');");</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0713','ZARUMA');");</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0714','LAS LAJAS');");</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0801','ESMERALDAS');");</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B341" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0802','ELOY ALFARO');");</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B342" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0803','MUISNE');");</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B343" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0804','QUININDÉ');");</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B344" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0805','SAN LORENZO');");</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B345" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0806','ATACAMES');");</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B346" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0807','RIOVERDE');");</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B347" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0808','LA CONCORDIA');");</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B348" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0901','GUAYAQUIL');");</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B349" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0902','EDO BAQUERIZO MORENO (JU');");</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B350" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0903','BALAO');");</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B351" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0904','BALZAR');");</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B352" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0905','COLIMES');");</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B353" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0906','DAULE');");</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B354" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0907','DURÁN');");</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B355" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0908','EL EMPALME');");</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B356" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0909','EL TRIUNFO');");</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B357" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0910','MILAGRO');");</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B358" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0911','NARANJAL');");</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B359" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0912','NARANJITO');");</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B360" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0913','PALESTINA');");</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B361" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0914','PEDRO CARBO');");</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B362" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0915','SAMBORONDÓN');");</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B363" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0916','SANTA LUCÍA');");</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B364" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0917','SALITRE (URBINA JADO)');");</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B365" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0918','SAN JACINTO DE YAGUACHI');");</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B366" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0919','PLAYAS');");</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B367" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0920','SIMÓN BOLÍVAR');");</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B368" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0921','RONEL MARCELINO MARIDUE');");</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B369" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0922','LOMAS DE SARGENTILLO');");</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B370" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0923','NOBOL');");</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B371" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0924','GENERAL ANTONIO ELIZALDE');");</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B372" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0925','ISIDRO AYORA');");</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B373" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,258,'1001','IBARRA');");</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B374" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,258,'1002','ANTONIO ANTE');");</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B375" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,258,'1003','COTACACHI');");</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B376" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,258,'1004','OTAVALO');");</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B377" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,258,'1005','PIMAMPIRO');");</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B378" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,258,'1006','SAN MIGUEL DE URCUQUÍ');");</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B379" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1107','LOJA');");</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B380" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1108','CALVAS');");</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B381" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1109','CATAMAYO');");</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B382" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1110','CELICA');");</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B383" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1111','CHAGUARPAMBA');");</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B384" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1112','ESPÍNDOLA');");</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B385" t="str">
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1113','GONZANAMÁ');");</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B386" t="str">
+        <f t="shared" ref="B386:B449" si="6">_xlfn.CONCAT("DB::select(""",A386,""");")</f>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1114','MACARÁ');");</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B387" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1115','PALTAS');");</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B388" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1116','PUYANGO');");</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B389" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1117','SARAGURO');");</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B390" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1118','SOZORANGA');");</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B391" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1119','ZAPOTILLO');");</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B392" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1120','PINDAL');");</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B393" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1121','QUILANGA');");</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B394" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1122','OLMEDO');");</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B395" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1201','BABAHOYO');");</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B396" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1202','BABA');");</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B397" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1203','MONTALVO');");</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B398" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1204','PUEBLOVIEJO');");</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B399" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1205','QUEVEDO');");</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B400" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1206','URDANETA');");</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B401" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1207','VENTANAS');");</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B402" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1208','VÍNCES');");</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B403" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1209','PALENQUE');");</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B404" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1210','BUENA FÉ');");</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B405" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1211','VALENCIA');");</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B406" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1212','MOCACHE');");</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B407" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1213','QUINSALOMA');");</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B408" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1301','PORTOVIEJO');");</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B409" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1302','BOLÍVAR');");</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B410" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1303','CHONE');");</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B411" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1304','EL CARMEN');");</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B412" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1305','FLAVIO ALFARO');");</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B413" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1306','JIPIJAPA');");</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B414" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1307','JUNÍN');");</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B415" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1308','MANTA');");</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B416" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1309','MONTECRISTI');");</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B417" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1310','PAJÁN');");</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B418" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1311','PICHINCHA');");</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B419" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1312','ROCAFUERTE');");</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B420" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1313','SANTA ANA');");</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B421" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1314','SUCRE');");</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B422" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1315','TOSAGUA');");</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B423" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1316','24 DE MAYO');");</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B424" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1317','PEDERNALES');");</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B425" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1318','OLMEDO');");</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B426" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1319','PUERTO LÓPEZ');");</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B427" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1320','JAMA');");</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B428" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1321','JARAMIJÓ');");</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B429" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1322','SAN VICENTE');");</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B430" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1401','MORONA');");</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B431" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1402','GUALAQUIZA');");</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B432" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1403','LIMÓN INDANZA');");</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B433" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1404','PALORA');");</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B434" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1405','SANTIAGO');");</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B435" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1406','SUCÚA');");</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B436" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1407','HUAMBOYA');");</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B437" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1408','SAN JUAN BOSCO');");</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B438" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1409','TAISHA');");</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B439" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1410','LOGROÑO');");</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B440" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1411','PABLO SEXTO');");</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B441" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1412','TIWINTZA');");</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B442" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,263,'1501','TENA');");</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B443" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,263,'1502','ARCHIDONA');");</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B444" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,263,'1503','EL CHACO');");</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B445" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,263,'1504','QUIJOS');");</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B446" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,263,'1505','ARLOS JULIO AROSEMENA TOL');");</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B447" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,264,'1601','PASTAZA');");</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B448" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,264,'1602','MERA');");</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B449" t="str">
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,264,'1603','SANTA CLARA');");</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B450" t="str">
+        <f t="shared" ref="B450:B497" si="7">_xlfn.CONCAT("DB::select(""",A450,""");")</f>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,264,'1604','ARAJUNO');");</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B451" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1701','QUITO');");</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B452" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1702','CAYAMBE');");</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B453" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1703','MEJIA');");</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B454" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1704','PEDRO MONCAYO');");</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B455" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1705','RUMIÑAHUI');");</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B456" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1706','SAN MIGUEL DE LOS BANCOS');");</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B457" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1707','PEDRO VICENTE MALDONADO');");</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B458" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1708','PUERTO QUITO');");</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B459" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1801','AMBATO');");</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B460" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1802','BAÑOS DE AGUA SANTA');");</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B461" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1803','CEVALLOS');");</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B462" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1804','MOCHA');");</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B463" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1805','PATATE');");</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B464" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1806','QUERO');");</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B465" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1807','SAN PEDRO DE PELILEO');");</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B466" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1808','SANTIAGO DE PÍLLARO');");</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B467" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1809','TISALEO');");</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B468" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1901','ZAMORA');");</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B469" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1902','CHINCHIPE');");</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B470" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1903','NANGARITZA');");</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B471" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1904','YACUAMBI');");</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B472" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1905','YANTZAZA (YANZATZA)');");</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B473" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1906','EL PANGUI');");</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B474" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1907','CENTINELA DEL CÓNDOR');");</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B475" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1908','PALANDA');");</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B476" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1909','PAQUISHA');");</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B477" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,268,'2001','SAN CRISTÓBAL');");</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B478" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,268,'2002','ISABELA');");</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B479" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,268,'2003','SANTA CRUZ');");</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B480" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,269,'2101','LAGO AGRIO');");</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B481" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,269,'2102','GONZALO PIZARRO');");</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B482" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,269,'2103','PUTUMAYO');");</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B483" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,269,'2104','SHUSHUFINDI');");</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B484" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,269,'2105','SUCUMBÍOS');");</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B485" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,269,'2106','CASCALES');");</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B486" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,269,'2107','CUYABENO');");</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B487" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,270,'2201','ORELLANA');");</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B488" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,270,'2202','AGUARICO');");</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B489" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,270,'2203','LA JOYA DE LOS SACHAS');");</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B490" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,270,'2204','LORETO');");</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B491" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,271,'2301','SANTO DOMINGO');");</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B492" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,272,'2401','SANTA ELENA');");</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B493" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,272,'2402','LA LIBERTAD');");</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B494" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,272,'2403','SALINAS');");</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B495" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,273,'9001','LAS GOLONDRINAS');");</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B496" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,273,'9002','MANGA DEL CURA');");</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1476</v>
+      </c>
+      <c r="B497" t="str">
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,273,'9003','EL PIEDRERO');");</v>
       </c>
     </row>
   </sheetData>
@@ -7798,6 +9787,2509 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFFB771-9F73-4435-B947-FCC4C2779CF8}">
+  <dimension ref="A1:B497"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1" t="str">
+        <f>_xlfn.CONCAT("DB::select('",A1,"')")</f>
+        <v>DB::select('insert into app.locations(type_id,code,name) values(37,'1','AFGANISTÁN');')</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9C0004-7D69-41C2-9F09-5ACAF4253FF2}">
   <dimension ref="A1:G248"/>
   <sheetViews>
@@ -13024,7 +17516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E582A0D5-7162-48F6-90D7-548F808221B0}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -13718,7 +18210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C402DF-BBF7-4279-8068-9C36DDA41E34}">
   <dimension ref="A1:H224"/>
   <sheetViews>
@@ -20009,7 +24501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F499"/>

--- a/storage/ubicaciones.xlsx
+++ b/storage/ubicaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ignug\siga_backend\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830A5AC1-D0C9-4CEC-9998-7D7DF9837AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010DB863-4E3E-4411-9CE9-E34683940522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4483" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4483" uniqueCount="1974">
   <si>
     <t>id</t>
   </si>
@@ -4459,6 +4459,1497 @@
   </si>
   <si>
     <t>insert into app.locations(type_id,parent_id,code,name) values(39,273,'9003','EL PIEDRERO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'1','AFGANISTÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'2','ALBANIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'3','ALEMANIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'4','ANDORRA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'5','ANGOLA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'6','ANGUILA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'7','ANTIGUA Y BARBUDA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'8','ARABIA SAUDITA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'9','ARGELIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'10','ARGENTINA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'11','ARMENIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'12','ARUBA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'13','AUSTRALIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'14','AUSTRIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'15','AZERBAIYÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'16','BAHAMAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'17','BAHREIN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'18','BANGLADESH');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'19','BARBADOS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'20','BÉLGICA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'21','BELICE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'22','BENIN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'23','BERMUDAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'24','BIELORRUSIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'25','BOLIVIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'26','BONAIRE, SAN EUSTAQUIO Y SABA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'27','BOSNIA Y HERZEGOVINA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'28','BOTSWANA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'29','BRASIL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'30','BRUNEI DARUSSALAM');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'31','BULGARIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'32','BURKINA FASO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'33','BURUNDI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'34','BUTÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'35','CABO VERDE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'36','CAMBOYA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'37','CAMERÚN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'38','CANADA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'39','CHAD');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'40','CHILE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'41','CHINA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'42','CHIPRE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'43','COLOMBIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'44','COMORAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'45','CONGO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'46','COREA DEL NORTE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'47','COREA DEL SUR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'48','COSTA DE MARﬁL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'49','COSTA RICA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'50','CROACIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'51','CUBA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'52','CURAÇAO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'53','DINAMARCA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'54','DJIBOUTI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'55','DOMINICA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'56','ECUADOR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'57','EGIPTO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'58','EL SALVADOR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'59','EL VATICANO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'60','EMIRATOS ÁRABES UNIDOS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'61','ERITREA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'62','ESLOVAQUIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'63','ESLOVENIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'64','ESPAÑA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'65','ESTADO DE PALESTINA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'66','ESTADOS UNIDOS DE AMÉRICA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'67','ESTONIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'68','ETIOPÍA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'69','FIYI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'70','FILIPINAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'71','FINLANDIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'72','FRANCIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'73','GABÓN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'74','GAMBIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'75','GEORGIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'76','GHANA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'77','GIBRALTAR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'78','GRANADA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'79','GRECIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'80','GROENLANDIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'81','GUADALUPE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'82','GUAM');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'83','GUATEMALA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'84','GUAYANA FRANCESA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'85','GUERNSEY');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'86','GUINEA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'87','GUINEA ECUATORIAL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'88','GUINEA-BISSAU');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'89','GUYANA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'90','HAITÍ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'91','HONDURAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'92','HONG KONG');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'93','HUNGRÍA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'94','INDIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'95','INDONESIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'96','IRAK');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'97','IRÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'98','IRLANDA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'99','ISLA DE MAN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'100','ISLA NORFOLK');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'101','ISLANDIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'102','ISLAS ÅLAND');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'103','ISLAS CAIMÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'104','ISLAS COOK');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'106','ISLAS FEROE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'107','ISLAS MALVINAS (FALKLAND)');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'108','ISLAS MARIANAS DEL NORTE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'109','ISLAS MARSHALL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'110','ISLAS SALOMÓN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'111','ISLAS TURCAS Y CAICOS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'112','ISLAS VÍRGENES AMERICANAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'113','ISLAS VÍRGENES BRITÁNICAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'114','ISLAS WALLIS Y FUTUNA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'115','ISRAEL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'116','ITALIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'117','JAMAICA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'118','JAPÓN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'119','JERSEY');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'120','JORDANIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'121','KAZAJSTÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'122','KENYA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'123','KIRGUISTÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'124','KIRIBATI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'125','KUWAIT');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'126','LA EX REPÚBLICA YUGOSLAVA DE MACEDONIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'127','LESOTO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'128','LETONIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'129','LÍBANO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'130','LIBERIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'131','LIBIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'132','LIECHTENSTEIN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'133','LITUANIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'134','LUXEMBURGO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'135','MACAO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'136','MADAGASCAR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'137','MALASIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'138','MALAUI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'139','MALDIVAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'140','MALÍ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'141','MALTA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'142','MARRUECOS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'143','MARTINICA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'144','MAURICIO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'145','MAURITANIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'146','MAYOTTE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'147','MÉXICO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'148','MICRONESIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'149','MÓNACO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'150','MONGOLIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'151','MONTENEGRO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'152','MONTSERRAT');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'153','MOZAMBIQUE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'154','MYANMAR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'155','NAMIBIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'156','NAURU');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'157','NEPAL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'158','NICARAGUA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'159','NÍGER');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'160','NIGERIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'161','NIUE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'162','NORUEGA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'163','NUEVA CALEDONIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'164','NUEVA ZELANDA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'165','OMÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'166','PAÍSES BAJOS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'167','PAKISTÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'168','PALAU');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'169','PANAMÁ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'170','PAPÚA NUEVA GUINEA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'171','PARAGUAY');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'172','PERÚ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'173','PITCAIRN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'174','POLINESIA FRANCÉS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'175','POLONIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'176','PORTUGAL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'177','PUERTO RICO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'178','QATAR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'179','REINO UNIDO DE GRAN BRETAÑA E IRLANDA DEL NORTE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'180','REPÚBLICA ÁRABE SIRIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'181','REPÚBLICA CENTROAFRICANA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'182','REPÚBLICA CHECA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'183','REPÚBLICA DE MOLDAVIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'184','REPÚBLICA DEMOCRÁTICA DEL CONGO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'185','REPÚBLICA DEMOCRÁTICA POPULAR LAO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'186','REPÚBLICA DOMINICANA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'187','REPÚBLICA UNIDA DE TANZANIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'188','RÉUNION');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'189','RUMANIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'190','RUSIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'191','RWANDA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'192','SÁHARA OCCIDENTAL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'193','SAINT-BARTHÉLEMY');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'194','SAINT-MARTIN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'195','SAMOA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'196','SAMOA AMERICANA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'197','SAN CRISTÓBAL Y NIEVES');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'198','SAN MARINO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'199','SAN PEDRO Y MIQUELÓN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'200','SAN VICENTE Y LAS GRANADINAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'201','SANTA ELENA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'202','SANTA LUCÍA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'203','SANTO TOMÉ Y PRÍNCIPE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'205','SENEGAL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'206','SERBIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'207','SEYCHELLES');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'208','SIERRA LEONA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'209','SINGAPUR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'210','SINT MAARTEN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'211','SOMALIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'212','SRI LANKA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'213','SUDÁFRICA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'214','SUDÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'215','SUDÁN DEL SUR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'216','SUECIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'217','SUIZA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'218','SURINAME');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'219','SVALBARD Y JAN MAYEN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'220','SWAZILANDIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'221','TAILANDIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'222','TAYIKISTÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'223','TIMOR-LESTE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'224','TOGO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'225','TOKELAU');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'226','TONGA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'227','TRINIDAD Y TOBAGO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'228','TÚNEZ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'229','TURKMENISTÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'230','TURQUÍA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'231','TUVALU');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'232','UCRANIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'233','UGANDA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'234','URUGUAY');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'235','UZBEKISTÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'236','VANUATU');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'237','VENEZUELA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'238','VIET NAM');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'239','YEMEN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'240','ZAMBIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'241','ZIMBABWE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'242','ANTÁRTIDA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'243','ISLA BOUVET');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'244','TERRITORIO BRITÁNICO DE LA OCÉANO ÍNDICO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'245','TAIWÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'246','ISLA DE NAVIDAD');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'247','ISLAS COCOS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'248','GEORGIA DEL SUR Y LAS ISLAS SANDWICH DEL SUR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'249','TERRITORIOS AUSTRALES FRANCESES');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,code,name) values(1,'999','NO REGISTRA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'01','AZUAY');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'02','BOLIVAR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'03','CAÑAR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'04','CARCHI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'05','COTOPAXI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'06','CHIMBORAZO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'07','EL ORO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'08','ESMERALDAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'09','GUAYAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'10','IMBABURA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'11','LOJA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'12','LOS RIOS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'13','MANABI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'14','MORONA SANTIAGO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'15','NAPO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'16','PASTAZA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'17','PICHINCHA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'18','TUNGURAHUA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'19','ZAMORA CHINCHIPE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'20','GALAPAGOS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'21','SUCUMBIOS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'22','ORELLANA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'23','SANTO DOMINGO DE LOS TSACHILAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'24','SANTA ELENA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(2,56,'90','ZONAS NO DELIMITADAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,249,'0101','CUENCA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,249,'0102','GIRÓN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,249,'0103','GUALACEO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,249,'0104','NABÓN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,249,'0105','PAUTE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,249,'0106','PUCARA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,249,'0107','SAN FERNANDO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,249,'0108','SANTA ISABEL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,249,'0109','SIGSIG');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,249,'0110','OÑA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,249,'0111','CHORDELEG');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,249,'0112','EL PAN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,249,'0113','SEVILLA DE ORO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,249,'0114','GUACHAPALA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,249,'0115','CAMILO PONCE ENRÍQUEZ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,250,'0201','GUARANDA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,250,'0202','CHILLANES');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,250,'0203','CHIMBO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,250,'0204','ECHEANDÍA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,250,'0205','SAN MIGUEL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,250,'0206','CALUMA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,250,'0207','LAS NAVES');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,251,'0301','AZOGUES');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,251,'0302','BIBLIÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,251,'0303','CAÑAR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,251,'0304','LA TRONCAL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,251,'0305','EL TAMBO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,251,'0306','DÉLEG');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,251,'0307','SUSCAL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,252,'0401','TULCÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,252,'0402','BOLÍVAR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,252,'0403','ESPEJO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,252,'0404','MIRA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,252,'0405','MONTÚFAR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,252,'0406','SAN PEDRO DE HUACA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,253,'0501','LATACUNGA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,253,'0502','LA MANÁ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,253,'0503','PANGUA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,253,'0504','PUJILI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,253,'0505','SALCEDO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,253,'0506','SAQUISILÍ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,253,'0507','SIGCHOS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,254,'0601','RIOBAMBA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,254,'0602','ALAUSI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,254,'0603','COLTA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,254,'0604','CHAMBO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,254,'0605','CHUNCHI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,254,'0606','GUAMOTE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,254,'0607','GUANO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,254,'0608','PALLATANGA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,254,'0609','PENIPE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,254,'0610','CUMANDÁ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,255,'0701','MACHALA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,255,'0702','ARENILLAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,255,'0703','ATAHUALPA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,255,'0704','BALSAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,255,'0705','CHILLA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,255,'0706','EL GUABO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,255,'0707','HUAQUILLAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,255,'0708','MARCABELÍ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,255,'0709','PASAJE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,255,'0710','PIÑAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,255,'0711','PORTOVELO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,255,'0712','SANTA ROSA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,255,'0713','ZARUMA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,255,'0714','LAS LAJAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,256,'0801','ESMERALDAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,256,'0802','ELOY ALFARO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,256,'0803','MUISNE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,256,'0804','QUININDÉ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,256,'0805','SAN LORENZO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,256,'0806','ATACAMES');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,256,'0807','RIOVERDE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,256,'0808','LA CONCORDIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0901','GUAYAQUIL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0902','EDO BAQUERIZO MORENO (JU');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0903','BALAO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0904','BALZAR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0905','COLIMES');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0906','DAULE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0907','DURÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0908','EL EMPALME');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0909','EL TRIUNFO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0910','MILAGRO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0911','NARANJAL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0912','NARANJITO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0913','PALESTINA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0914','PEDRO CARBO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0915','SAMBORONDÓN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0916','SANTA LUCÍA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0917','SALITRE (URBINA JADO)');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0918','SAN JACINTO DE YAGUACHI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0919','PLAYAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0920','SIMÓN BOLÍVAR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0921','RONEL MARCELINO MARIDUE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0922','LOMAS DE SARGENTILLO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0923','NOBOL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0924','GENERAL ANTONIO ELIZALDE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,257,'0925','ISIDRO AYORA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,258,'1001','IBARRA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,258,'1002','ANTONIO ANTE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,258,'1003','COTACACHI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,258,'1004','OTAVALO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,258,'1005','PIMAMPIRO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,258,'1006','SAN MIGUEL DE URCUQUÍ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1107','LOJA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1108','CALVAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1109','CATAMAYO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1110','CELICA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1111','CHAGUARPAMBA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1112','ESPÍNDOLA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1113','GONZANAMÁ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1114','MACARÁ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1115','PALTAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1116','PUYANGO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1117','SARAGURO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1118','SOZORANGA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1119','ZAPOTILLO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1120','PINDAL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1121','QUILANGA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,259,'1122','OLMEDO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,260,'1201','BABAHOYO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,260,'1202','BABA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,260,'1203','MONTALVO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,260,'1204','PUEBLOVIEJO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,260,'1205','QUEVEDO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,260,'1206','URDANETA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,260,'1207','VENTANAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,260,'1208','VÍNCES');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,260,'1209','PALENQUE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,260,'1210','BUENA FÉ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,260,'1211','VALENCIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,260,'1212','MOCACHE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,260,'1213','QUINSALOMA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1301','PORTOVIEJO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1302','BOLÍVAR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1303','CHONE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1304','EL CARMEN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1305','FLAVIO ALFARO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1306','JIPIJAPA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1307','JUNÍN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1308','MANTA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1309','MONTECRISTI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1310','PAJÁN');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1311','PICHINCHA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1312','ROCAFUERTE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1313','SANTA ANA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1314','SUCRE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1315','TOSAGUA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1316','24 DE MAYO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1317','PEDERNALES');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1318','OLMEDO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1319','PUERTO LÓPEZ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1320','JAMA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1321','JARAMIJÓ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,261,'1322','SAN VICENTE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,262,'1401','MORONA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,262,'1402','GUALAQUIZA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,262,'1403','LIMÓN INDANZA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,262,'1404','PALORA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,262,'1405','SANTIAGO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,262,'1406','SUCÚA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,262,'1407','HUAMBOYA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,262,'1408','SAN JUAN BOSCO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,262,'1409','TAISHA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,262,'1410','LOGROÑO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,262,'1411','PABLO SEXTO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,262,'1412','TIWINTZA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,263,'1501','TENA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,263,'1502','ARCHIDONA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,263,'1503','EL CHACO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,263,'1504','QUIJOS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,263,'1505','ARLOS JULIO AROSEMENA TOL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,264,'1601','PASTAZA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,264,'1602','MERA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,264,'1603','SANTA CLARA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,264,'1604','ARAJUNO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,265,'1701','QUITO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,265,'1702','CAYAMBE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,265,'1703','MEJIA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,265,'1704','PEDRO MONCAYO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,265,'1705','RUMIÑAHUI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,265,'1706','SAN MIGUEL DE LOS BANCOS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,265,'1707','PEDRO VICENTE MALDONADO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,265,'1708','PUERTO QUITO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,266,'1801','AMBATO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,266,'1802','BAÑOS DE AGUA SANTA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,266,'1803','CEVALLOS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,266,'1804','MOCHA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,266,'1805','PATATE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,266,'1806','QUERO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,266,'1807','SAN PEDRO DE PELILEO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,266,'1808','SANTIAGO DE PÍLLARO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,266,'1809','TISALEO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,267,'1901','ZAMORA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,267,'1902','CHINCHIPE');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,267,'1903','NANGARITZA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,267,'1904','YACUAMBI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,267,'1905','YANTZAZA (YANZATZA)');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,267,'1906','EL PANGUI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,267,'1907','CENTINELA DEL CÓNDOR');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,267,'1908','PALANDA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,267,'1909','PAQUISHA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,268,'2001','SAN CRISTÓBAL');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,268,'2002','ISABELA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,268,'2003','SANTA CRUZ');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,269,'2101','LAGO AGRIO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,269,'2102','GONZALO PIZARRO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,269,'2103','PUTUMAYO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,269,'2104','SHUSHUFINDI');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,269,'2105','SUCUMBÍOS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,269,'2106','CASCALES');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,269,'2107','CUYABENO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,270,'2201','ORELLANA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,270,'2202','AGUARICO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,270,'2203','LA JOYA DE LOS SACHAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,270,'2204','LORETO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,271,'2301','SANTO DOMINGO');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,272,'2401','SANTA ELENA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,272,'2402','LA LIBERTAD');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,272,'2403','SALINAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,273,'9001','LAS GOLONDRINAS');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,273,'9002','MANGA DEL CURA');</t>
+  </si>
+  <si>
+    <t>insert into app.locations(type_id,parent_id,code,name) values(3,273,'9003','EL PIEDRERO');</t>
   </si>
 </sst>
 </file>
@@ -5306,4478 +6797,4481 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="108.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>980</v>
+        <v>1477</v>
       </c>
       <c r="B1" t="str">
         <f>_xlfn.CONCAT("DB::select(""",A1,""");")</f>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'1','AFGANISTÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'1','AFGANISTÁN');");</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>981</v>
+        <v>1478</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B65" si="0">_xlfn.CONCAT("DB::select(""",A2,""");")</f>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'2','ALBANIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'2','ALBANIA');");</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>982</v>
+        <v>1479</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'3','ALEMANIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'3','ALEMANIA');");</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>983</v>
+        <v>1480</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'4','ANDORRA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'4','ANDORRA');");</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>984</v>
+        <v>1481</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'5','ANGOLA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'5','ANGOLA');");</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>985</v>
+        <v>1482</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'6','ANGUILA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'6','ANGUILA');");</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>986</v>
+        <v>1483</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'7','ANTIGUA Y BARBUDA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'7','ANTIGUA Y BARBUDA');");</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>987</v>
+        <v>1484</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'8','ARABIA SAUDITA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'8','ARABIA SAUDITA');");</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>988</v>
+        <v>1485</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'9','ARGELIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'9','ARGELIA');");</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>989</v>
+        <v>1486</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'10','ARGENTINA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'10','ARGENTINA');");</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>990</v>
+        <v>1487</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'11','ARMENIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'11','ARMENIA');");</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>991</v>
+        <v>1488</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'12','ARUBA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'12','ARUBA');");</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>992</v>
+        <v>1489</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'13','AUSTRALIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'13','AUSTRALIA');");</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>993</v>
+        <v>1490</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'14','AUSTRIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'14','AUSTRIA');");</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>994</v>
+        <v>1491</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'15','AZERBAIYÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'15','AZERBAIYÁN');");</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>995</v>
+        <v>1492</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'16','BAHAMAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'16','BAHAMAS');");</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>996</v>
+        <v>1493</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'17','BAHREIN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'17','BAHREIN');");</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>997</v>
+        <v>1494</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'18','BANGLADESH');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'18','BANGLADESH');");</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>998</v>
+        <v>1495</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'19','BARBADOS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'19','BARBADOS');");</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>999</v>
+        <v>1496</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'20','BÉLGICA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'20','BÉLGICA');");</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1000</v>
+        <v>1497</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'21','BELICE');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'21','BELICE');");</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1001</v>
+        <v>1498</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'22','BENIN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'22','BENIN');");</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1002</v>
+        <v>1499</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'23','BERMUDAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'23','BERMUDAS');");</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1003</v>
+        <v>1500</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'24','BIELORRUSIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'24','BIELORRUSIA');");</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1004</v>
+        <v>1501</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'25','BOLIVIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'25','BOLIVIA');");</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1005</v>
+        <v>1502</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'26','BONAIRE, SAN EUSTAQUIO Y SABA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'26','BONAIRE, SAN EUSTAQUIO Y SABA');");</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1006</v>
+        <v>1503</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'27','BOSNIA Y HERZEGOVINA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'27','BOSNIA Y HERZEGOVINA');");</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1007</v>
+        <v>1504</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'28','BOTSWANA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'28','BOTSWANA');");</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1008</v>
+        <v>1505</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'29','BRASIL');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'29','BRASIL');");</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1009</v>
+        <v>1506</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'30','BRUNEI DARUSSALAM');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'30','BRUNEI DARUSSALAM');");</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1010</v>
+        <v>1507</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'31','BULGARIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'31','BULGARIA');");</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1011</v>
+        <v>1508</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'32','BURKINA FASO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'32','BURKINA FASO');");</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1012</v>
+        <v>1509</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'33','BURUNDI');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'33','BURUNDI');");</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1013</v>
+        <v>1510</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'34','BUTÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'34','BUTÁN');");</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1014</v>
+        <v>1511</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'35','CABO VERDE');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'35','CABO VERDE');");</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1015</v>
+        <v>1512</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'36','CAMBOYA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'36','CAMBOYA');");</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1016</v>
+        <v>1513</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'37','CAMERÚN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'37','CAMERÚN');");</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1017</v>
+        <v>1514</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'38','CANADA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'38','CANADA');");</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1018</v>
+        <v>1515</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'39','CHAD');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'39','CHAD');");</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1019</v>
+        <v>1516</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'40','CHILE');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'40','CHILE');");</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1020</v>
+        <v>1517</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'41','CHINA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'41','CHINA');");</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1021</v>
+        <v>1518</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'42','CHIPRE');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'42','CHIPRE');");</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1022</v>
+        <v>1519</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'43','COLOMBIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'43','COLOMBIA');");</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1023</v>
+        <v>1520</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'44','COMORAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'44','COMORAS');");</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1024</v>
+        <v>1521</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'45','CONGO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'45','CONGO');");</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1025</v>
+        <v>1522</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'46','COREA DEL NORTE');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'46','COREA DEL NORTE');");</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1026</v>
+        <v>1523</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'47','COREA DEL SUR');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'47','COREA DEL SUR');");</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1027</v>
+        <v>1524</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'48','COSTA DE MARﬁL');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'48','COSTA DE MARﬁL');");</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1028</v>
+        <v>1525</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'49','COSTA RICA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'49','COSTA RICA');");</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1029</v>
+        <v>1526</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'50','CROACIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'50','CROACIA');");</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1030</v>
+        <v>1527</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'51','CUBA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'51','CUBA');");</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1031</v>
+        <v>1528</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'52','CURAÇAO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'52','CURAÇAO');");</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1032</v>
+        <v>1529</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'53','DINAMARCA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'53','DINAMARCA');");</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1033</v>
+        <v>1530</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'54','DJIBOUTI');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'54','DJIBOUTI');");</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1034</v>
+        <v>1531</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'55','DOMINICA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'55','DOMINICA');");</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1035</v>
+        <v>1532</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'56','ECUADOR');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'56','ECUADOR');");</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1036</v>
+        <v>1533</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'57','EGIPTO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'57','EGIPTO');");</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1037</v>
+        <v>1534</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'58','EL SALVADOR');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'58','EL SALVADOR');");</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1038</v>
+        <v>1535</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'59','EL VATICANO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'59','EL VATICANO');");</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1039</v>
+        <v>1536</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'60','EMIRATOS ÁRABES UNIDOS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'60','EMIRATOS ÁRABES UNIDOS');");</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1040</v>
+        <v>1537</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'61','ERITREA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'61','ERITREA');");</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1041</v>
+        <v>1538</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'62','ESLOVAQUIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'62','ESLOVAQUIA');");</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1042</v>
+        <v>1539</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'63','ESLOVENIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'63','ESLOVENIA');");</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1043</v>
+        <v>1540</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'64','ESPAÑA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'64','ESPAÑA');");</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1044</v>
+        <v>1541</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'65','ESTADO DE PALESTINA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'65','ESTADO DE PALESTINA');");</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1045</v>
+        <v>1542</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ref="B66:B129" si="1">_xlfn.CONCAT("DB::select(""",A66,""");")</f>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'66','ESTADOS UNIDOS DE AMÉRICA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'66','ESTADOS UNIDOS DE AMÉRICA');");</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1046</v>
+        <v>1543</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'67','ESTONIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'67','ESTONIA');");</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1047</v>
+        <v>1544</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'68','ETIOPÍA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'68','ETIOPÍA');");</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1048</v>
+        <v>1545</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'69','FIYI');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'69','FIYI');");</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1049</v>
+        <v>1546</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'70','FILIPINAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'70','FILIPINAS');");</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1050</v>
+        <v>1547</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'71','FINLANDIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'71','FINLANDIA');");</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1051</v>
+        <v>1548</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'72','FRANCIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'72','FRANCIA');");</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1052</v>
+        <v>1549</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'73','GABÓN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'73','GABÓN');");</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1053</v>
+        <v>1550</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'74','GAMBIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'74','GAMBIA');");</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1054</v>
+        <v>1551</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'75','GEORGIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'75','GEORGIA');");</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1055</v>
+        <v>1552</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'76','GHANA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'76','GHANA');");</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1056</v>
+        <v>1553</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'77','GIBRALTAR');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'77','GIBRALTAR');");</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1057</v>
+        <v>1554</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'78','GRANADA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'78','GRANADA');");</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1058</v>
+        <v>1555</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'79','GRECIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'79','GRECIA');");</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1059</v>
+        <v>1556</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'80','GROENLANDIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'80','GROENLANDIA');");</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1060</v>
+        <v>1557</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'81','GUADALUPE');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'81','GUADALUPE');");</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1061</v>
+        <v>1558</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'82','GUAM');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'82','GUAM');");</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1062</v>
+        <v>1559</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'83','GUATEMALA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'83','GUATEMALA');");</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1063</v>
+        <v>1560</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'84','GUAYANA FRANCESA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'84','GUAYANA FRANCESA');");</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1064</v>
+        <v>1561</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'85','GUERNSEY');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'85','GUERNSEY');");</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1065</v>
+        <v>1562</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'86','GUINEA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'86','GUINEA');");</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1066</v>
+        <v>1563</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'87','GUINEA ECUATORIAL');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'87','GUINEA ECUATORIAL');");</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1067</v>
+        <v>1564</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'88','GUINEA-BISSAU');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'88','GUINEA-BISSAU');");</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1068</v>
+        <v>1565</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'89','GUYANA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'89','GUYANA');");</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1069</v>
+        <v>1566</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'90','HAITÍ');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'90','HAITÍ');");</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1070</v>
+        <v>1567</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'91','HONDURAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'91','HONDURAS');");</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1071</v>
+        <v>1568</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'92','HONG KONG');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'92','HONG KONG');");</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1072</v>
+        <v>1569</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'93','HUNGRÍA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'93','HUNGRÍA');");</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1073</v>
+        <v>1570</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'94','INDIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'94','INDIA');");</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1074</v>
+        <v>1571</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'95','INDONESIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'95','INDONESIA');");</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1075</v>
+        <v>1572</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'96','IRAK');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'96','IRAK');");</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1076</v>
+        <v>1573</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'97','IRÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'97','IRÁN');");</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1077</v>
+        <v>1574</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'98','IRLANDA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'98','IRLANDA');");</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1078</v>
+        <v>1575</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'99','ISLA DE MAN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'99','ISLA DE MAN');");</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1079</v>
+        <v>1576</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'100','ISLA NORFOLK');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'100','ISLA NORFOLK');");</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1080</v>
+        <v>1577</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'101','ISLANDIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'101','ISLANDIA');");</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1081</v>
+        <v>1578</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'102','ISLAS ÅLAND');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'102','ISLAS ÅLAND');");</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1082</v>
+        <v>1579</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'103','ISLAS CAIMÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'103','ISLAS CAIMÁN');");</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1083</v>
+        <v>1580</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'104','ISLAS COOK');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'104','ISLAS COOK');");</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1084</v>
+        <v>1581</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'106','ISLAS FEROE');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'106','ISLAS FEROE');");</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1085</v>
+        <v>1582</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'107','ISLAS MALVINAS (FALKLAND)');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'107','ISLAS MALVINAS (FALKLAND)');");</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1086</v>
+        <v>1583</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'108','ISLAS MARIANAS DEL NORTE');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'108','ISLAS MARIANAS DEL NORTE');");</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1087</v>
+        <v>1584</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'109','ISLAS MARSHALL');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'109','ISLAS MARSHALL');");</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1088</v>
+        <v>1585</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'110','ISLAS SALOMÓN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'110','ISLAS SALOMÓN');");</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1089</v>
+        <v>1586</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'111','ISLAS TURCAS Y CAICOS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'111','ISLAS TURCAS Y CAICOS');");</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1090</v>
+        <v>1587</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'112','ISLAS VÍRGENES AMERICANAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'112','ISLAS VÍRGENES AMERICANAS');");</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1091</v>
+        <v>1588</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'113','ISLAS VÍRGENES BRITÁNICAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'113','ISLAS VÍRGENES BRITÁNICAS');");</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1092</v>
+        <v>1589</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'114','ISLAS WALLIS Y FUTUNA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'114','ISLAS WALLIS Y FUTUNA');");</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1093</v>
+        <v>1590</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'115','ISRAEL');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'115','ISRAEL');");</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1094</v>
+        <v>1591</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'116','ITALIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'116','ITALIA');");</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1095</v>
+        <v>1592</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'117','JAMAICA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'117','JAMAICA');");</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1096</v>
+        <v>1593</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'118','JAPÓN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'118','JAPÓN');");</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1097</v>
+        <v>1594</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'119','JERSEY');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'119','JERSEY');");</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1098</v>
+        <v>1595</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'120','JORDANIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'120','JORDANIA');");</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1099</v>
+        <v>1596</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'121','KAZAJSTÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'121','KAZAJSTÁN');");</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1100</v>
+        <v>1597</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'122','KENYA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'122','KENYA');");</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1101</v>
+        <v>1598</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'123','KIRGUISTÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'123','KIRGUISTÁN');");</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1102</v>
+        <v>1599</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'124','KIRIBATI');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'124','KIRIBATI');");</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1103</v>
+        <v>1600</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'125','KUWAIT');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'125','KUWAIT');");</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1104</v>
+        <v>1601</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'126','LA EX REPÚBLICA YUGOSLAVA DE MACEDONIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'126','LA EX REPÚBLICA YUGOSLAVA DE MACEDONIA');");</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1105</v>
+        <v>1602</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'127','LESOTO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'127','LESOTO');");</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1106</v>
+        <v>1603</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'128','LETONIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'128','LETONIA');");</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1107</v>
+        <v>1604</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'129','LÍBANO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'129','LÍBANO');");</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1108</v>
+        <v>1605</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="1"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'130','LIBERIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'130','LIBERIA');");</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1109</v>
+        <v>1606</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" ref="B130:B193" si="2">_xlfn.CONCAT("DB::select(""",A130,""");")</f>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'131','LIBIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'131','LIBIA');");</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1110</v>
+        <v>1607</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'132','LIECHTENSTEIN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'132','LIECHTENSTEIN');");</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1111</v>
+        <v>1608</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'133','LITUANIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'133','LITUANIA');");</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1112</v>
+        <v>1609</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'134','LUXEMBURGO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'134','LUXEMBURGO');");</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1113</v>
+        <v>1610</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'135','MACAO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'135','MACAO');");</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1114</v>
+        <v>1611</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'136','MADAGASCAR');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'136','MADAGASCAR');");</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1115</v>
+        <v>1612</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'137','MALASIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'137','MALASIA');");</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1116</v>
+        <v>1613</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'138','MALAUI');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'138','MALAUI');");</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1117</v>
+        <v>1614</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'139','MALDIVAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'139','MALDIVAS');");</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1118</v>
+        <v>1615</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'140','MALÍ');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'140','MALÍ');");</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1119</v>
+        <v>1616</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'141','MALTA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'141','MALTA');");</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1120</v>
+        <v>1617</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'142','MARRUECOS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'142','MARRUECOS');");</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1121</v>
+        <v>1618</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'143','MARTINICA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'143','MARTINICA');");</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1122</v>
+        <v>1619</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'144','MAURICIO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'144','MAURICIO');");</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1123</v>
+        <v>1620</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'145','MAURITANIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'145','MAURITANIA');");</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1124</v>
+        <v>1621</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'146','MAYOTTE');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'146','MAYOTTE');");</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1125</v>
+        <v>1622</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'147','MÉXICO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'147','MÉXICO');");</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1126</v>
+        <v>1623</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'148','MICRONESIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'148','MICRONESIA');");</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1127</v>
+        <v>1624</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'149','MÓNACO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'149','MÓNACO');");</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1128</v>
+        <v>1625</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'150','MONGOLIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'150','MONGOLIA');");</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1129</v>
+        <v>1626</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'151','MONTENEGRO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'151','MONTENEGRO');");</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1130</v>
+        <v>1627</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'152','MONTSERRAT');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'152','MONTSERRAT');");</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1131</v>
+        <v>1628</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'153','MOZAMBIQUE');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'153','MOZAMBIQUE');");</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1132</v>
+        <v>1629</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'154','MYANMAR');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'154','MYANMAR');");</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1133</v>
+        <v>1630</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'155','NAMIBIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'155','NAMIBIA');");</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1134</v>
+        <v>1631</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'156','NAURU');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'156','NAURU');");</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1135</v>
+        <v>1632</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'157','NEPAL');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'157','NEPAL');");</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1136</v>
+        <v>1633</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'158','NICARAGUA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'158','NICARAGUA');");</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1137</v>
+        <v>1634</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'159','NÍGER');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'159','NÍGER');");</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1138</v>
+        <v>1635</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'160','NIGERIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'160','NIGERIA');");</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1139</v>
+        <v>1636</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'161','NIUE');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'161','NIUE');");</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1140</v>
+        <v>1637</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'162','NORUEGA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'162','NORUEGA');");</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1141</v>
+        <v>1638</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'163','NUEVA CALEDONIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'163','NUEVA CALEDONIA');");</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1142</v>
+        <v>1639</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'164','NUEVA ZELANDA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'164','NUEVA ZELANDA');");</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1143</v>
+        <v>1640</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'165','OMÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'165','OMÁN');");</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1144</v>
+        <v>1641</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'166','PAÍSES BAJOS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'166','PAÍSES BAJOS');");</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1145</v>
+        <v>1642</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'167','PAKISTÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'167','PAKISTÁN');");</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1146</v>
+        <v>1643</v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'168','PALAU');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'168','PALAU');");</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1147</v>
+        <v>1644</v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'169','PANAMÁ');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'169','PANAMÁ');");</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1148</v>
+        <v>1645</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'170','PAPÚA NUEVA GUINEA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'170','PAPÚA NUEVA GUINEA');");</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1149</v>
+        <v>1646</v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'171','PARAGUAY');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'171','PARAGUAY');");</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1150</v>
+        <v>1647</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'172','PERÚ');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'172','PERÚ');");</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1151</v>
+        <v>1648</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'173','PITCAIRN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'173','PITCAIRN');");</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1152</v>
+        <v>1649</v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'174','POLINESIA FRANCÉS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'174','POLINESIA FRANCÉS');");</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1153</v>
+        <v>1650</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'175','POLONIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'175','POLONIA');");</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1154</v>
+        <v>1651</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'176','PORTUGAL');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'176','PORTUGAL');");</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1155</v>
+        <v>1652</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'177','PUERTO RICO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'177','PUERTO RICO');");</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1156</v>
+        <v>1653</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'178','QATAR');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'178','QATAR');");</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1157</v>
+        <v>1654</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'179','REINO UNIDO DE GRAN BRETAÑA E IRLANDA DEL NORTE');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'179','REINO UNIDO DE GRAN BRETAÑA E IRLANDA DEL NORTE');");</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1158</v>
+        <v>1655</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'180','REPÚBLICA ÁRABE SIRIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'180','REPÚBLICA ÁRABE SIRIA');");</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1159</v>
+        <v>1656</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'181','REPÚBLICA CENTROAFRICANA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'181','REPÚBLICA CENTROAFRICANA');");</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1160</v>
+        <v>1657</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'182','REPÚBLICA CHECA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'182','REPÚBLICA CHECA');");</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1161</v>
+        <v>1658</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'183','REPÚBLICA DE MOLDAVIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'183','REPÚBLICA DE MOLDAVIA');");</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1162</v>
+        <v>1659</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'184','REPÚBLICA DEMOCRÁTICA DEL CONGO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'184','REPÚBLICA DEMOCRÁTICA DEL CONGO');");</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1163</v>
+        <v>1660</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'185','REPÚBLICA DEMOCRÁTICA POPULAR LAO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'185','REPÚBLICA DEMOCRÁTICA POPULAR LAO');");</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1164</v>
+        <v>1661</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'186','REPÚBLICA DOMINICANA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'186','REPÚBLICA DOMINICANA');");</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1165</v>
+        <v>1662</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'187','REPÚBLICA UNIDA DE TANZANIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'187','REPÚBLICA UNIDA DE TANZANIA');");</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1166</v>
+        <v>1663</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'188','RÉUNION');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'188','RÉUNION');");</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1167</v>
+        <v>1664</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'189','RUMANIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'189','RUMANIA');");</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1168</v>
+        <v>1665</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'190','RUSIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'190','RUSIA');");</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1169</v>
+        <v>1666</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'191','RWANDA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'191','RWANDA');");</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1170</v>
+        <v>1667</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'192','SÁHARA OCCIDENTAL');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'192','SÁHARA OCCIDENTAL');");</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1171</v>
+        <v>1668</v>
       </c>
       <c r="B192" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'193','SAINT-BARTHÉLEMY');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'193','SAINT-BARTHÉLEMY');");</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1172</v>
+        <v>1669</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="2"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'194','SAINT-MARTIN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'194','SAINT-MARTIN');");</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1173</v>
+        <v>1670</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" ref="B194:B257" si="3">_xlfn.CONCAT("DB::select(""",A194,""");")</f>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'195','SAMOA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'195','SAMOA');");</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1174</v>
+        <v>1671</v>
       </c>
       <c r="B195" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'196','SAMOA AMERICANA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'196','SAMOA AMERICANA');");</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1175</v>
+        <v>1672</v>
       </c>
       <c r="B196" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'197','SAN CRISTÓBAL Y NIEVES');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'197','SAN CRISTÓBAL Y NIEVES');");</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1176</v>
+        <v>1673</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'198','SAN MARINO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'198','SAN MARINO');");</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1177</v>
+        <v>1674</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'199','SAN PEDRO Y MIQUELÓN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'199','SAN PEDRO Y MIQUELÓN');");</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1178</v>
+        <v>1675</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'200','SAN VICENTE Y LAS GRANADINAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'200','SAN VICENTE Y LAS GRANADINAS');");</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1179</v>
+        <v>1676</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'201','SANTA ELENA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'201','SANTA ELENA');");</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1180</v>
+        <v>1677</v>
       </c>
       <c r="B201" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'202','SANTA LUCÍA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'202','SANTA LUCÍA');");</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1181</v>
+        <v>1678</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'203','SANTO TOMÉ Y PRÍNCIPE');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'203','SANTO TOMÉ Y PRÍNCIPE');");</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1182</v>
+        <v>1679</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'205','SENEGAL');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'205','SENEGAL');");</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1183</v>
+        <v>1680</v>
       </c>
       <c r="B204" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'206','SERBIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'206','SERBIA');");</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1184</v>
+        <v>1681</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'207','SEYCHELLES');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'207','SEYCHELLES');");</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1185</v>
+        <v>1682</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'208','SIERRA LEONA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'208','SIERRA LEONA');");</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1186</v>
+        <v>1683</v>
       </c>
       <c r="B207" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'209','SINGAPUR');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'209','SINGAPUR');");</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1187</v>
+        <v>1684</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'210','SINT MAARTEN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'210','SINT MAARTEN');");</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1188</v>
+        <v>1685</v>
       </c>
       <c r="B209" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'211','SOMALIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'211','SOMALIA');");</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1189</v>
+        <v>1686</v>
       </c>
       <c r="B210" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'212','SRI LANKA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'212','SRI LANKA');");</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1190</v>
+        <v>1687</v>
       </c>
       <c r="B211" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'213','SUDÁFRICA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'213','SUDÁFRICA');");</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1191</v>
+        <v>1688</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'214','SUDÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'214','SUDÁN');");</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1192</v>
+        <v>1689</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'215','SUDÁN DEL SUR');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'215','SUDÁN DEL SUR');");</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1193</v>
+        <v>1690</v>
       </c>
       <c r="B214" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'216','SUECIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'216','SUECIA');");</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1194</v>
+        <v>1691</v>
       </c>
       <c r="B215" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'217','SUIZA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'217','SUIZA');");</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1195</v>
+        <v>1692</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'218','SURINAME');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'218','SURINAME');");</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1196</v>
+        <v>1693</v>
       </c>
       <c r="B217" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'219','SVALBARD Y JAN MAYEN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'219','SVALBARD Y JAN MAYEN');");</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1197</v>
+        <v>1694</v>
       </c>
       <c r="B218" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'220','SWAZILANDIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'220','SWAZILANDIA');");</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1198</v>
+        <v>1695</v>
       </c>
       <c r="B219" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'221','TAILANDIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'221','TAILANDIA');");</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1199</v>
+        <v>1696</v>
       </c>
       <c r="B220" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'222','TAYIKISTÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'222','TAYIKISTÁN');");</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1200</v>
+        <v>1697</v>
       </c>
       <c r="B221" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'223','TIMOR-LESTE');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'223','TIMOR-LESTE');");</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1201</v>
+        <v>1698</v>
       </c>
       <c r="B222" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'224','TOGO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'224','TOGO');");</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1202</v>
+        <v>1699</v>
       </c>
       <c r="B223" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'225','TOKELAU');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'225','TOKELAU');");</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1203</v>
+        <v>1700</v>
       </c>
       <c r="B224" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'226','TONGA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'226','TONGA');");</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1204</v>
+        <v>1701</v>
       </c>
       <c r="B225" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'227','TRINIDAD Y TOBAGO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'227','TRINIDAD Y TOBAGO');");</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1205</v>
+        <v>1702</v>
       </c>
       <c r="B226" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'228','TÚNEZ');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'228','TÚNEZ');");</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1206</v>
+        <v>1703</v>
       </c>
       <c r="B227" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'229','TURKMENISTÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'229','TURKMENISTÁN');");</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1207</v>
+        <v>1704</v>
       </c>
       <c r="B228" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'230','TURQUÍA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'230','TURQUÍA');");</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1208</v>
+        <v>1705</v>
       </c>
       <c r="B229" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'231','TUVALU');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'231','TUVALU');");</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1209</v>
+        <v>1706</v>
       </c>
       <c r="B230" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'232','UCRANIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'232','UCRANIA');");</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1210</v>
+        <v>1707</v>
       </c>
       <c r="B231" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'233','UGANDA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'233','UGANDA');");</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1211</v>
+        <v>1708</v>
       </c>
       <c r="B232" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'234','URUGUAY');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'234','URUGUAY');");</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1212</v>
+        <v>1709</v>
       </c>
       <c r="B233" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'235','UZBEKISTÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'235','UZBEKISTÁN');");</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1213</v>
+        <v>1710</v>
       </c>
       <c r="B234" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'236','VANUATU');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'236','VANUATU');");</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1214</v>
+        <v>1711</v>
       </c>
       <c r="B235" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'237','VENEZUELA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'237','VENEZUELA');");</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1215</v>
+        <v>1712</v>
       </c>
       <c r="B236" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'238','VIET NAM');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'238','VIET NAM');");</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1216</v>
+        <v>1713</v>
       </c>
       <c r="B237" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'239','YEMEN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'239','YEMEN');");</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1217</v>
+        <v>1714</v>
       </c>
       <c r="B238" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'240','ZAMBIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'240','ZAMBIA');");</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1218</v>
+        <v>1715</v>
       </c>
       <c r="B239" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'241','ZIMBABWE');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'241','ZIMBABWE');");</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1219</v>
+        <v>1716</v>
       </c>
       <c r="B240" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'242','ANTÁRTIDA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'242','ANTÁRTIDA');");</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1220</v>
+        <v>1717</v>
       </c>
       <c r="B241" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'243','ISLA BOUVET');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'243','ISLA BOUVET');");</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1221</v>
+        <v>1718</v>
       </c>
       <c r="B242" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'244','TERRITORIO BRITÁNICO DE LA OCÉANO ÍNDICO');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'244','TERRITORIO BRITÁNICO DE LA OCÉANO ÍNDICO');");</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1222</v>
+        <v>1719</v>
       </c>
       <c r="B243" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'245','TAIWÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'245','TAIWÁN');");</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1223</v>
+        <v>1720</v>
       </c>
       <c r="B244" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'246','ISLA DE NAVIDAD');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'246','ISLA DE NAVIDAD');");</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1224</v>
+        <v>1721</v>
       </c>
       <c r="B245" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'247','ISLAS COCOS');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'247','ISLAS COCOS');");</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1225</v>
+        <v>1722</v>
       </c>
       <c r="B246" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'248','GEORGIA DEL SUR Y LAS ISLAS SANDWICH DEL SUR');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'248','GEORGIA DEL SUR Y LAS ISLAS SANDWICH DEL SUR');");</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1226</v>
+        <v>1723</v>
       </c>
       <c r="B247" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'249','TERRITORIOS AUSTRALES FRANCESES');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'249','TERRITORIOS AUSTRALES FRANCESES');");</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1227</v>
+        <v>1724</v>
       </c>
       <c r="B248" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,code,name) values(37,'999','NO REGISTRA');");</v>
+        <v>DB::select("insert into app.locations(type_id,code,name) values(1,'999','NO REGISTRA');");</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1228</v>
+        <v>1725</v>
       </c>
       <c r="B249" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'01','AZUAY');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'01','AZUAY');");</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1229</v>
+        <v>1726</v>
       </c>
       <c r="B250" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'02','BOLIVAR');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'02','BOLIVAR');");</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1230</v>
+        <v>1727</v>
       </c>
       <c r="B251" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'03','CAÑAR');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'03','CAÑAR');");</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1231</v>
+        <v>1728</v>
       </c>
       <c r="B252" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'04','CARCHI');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'04','CARCHI');");</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1232</v>
+        <v>1729</v>
       </c>
       <c r="B253" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'05','COTOPAXI');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'05','COTOPAXI');");</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1233</v>
+        <v>1730</v>
       </c>
       <c r="B254" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'06','CHIMBORAZO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'06','CHIMBORAZO');");</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1234</v>
+        <v>1731</v>
       </c>
       <c r="B255" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'07','EL ORO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'07','EL ORO');");</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1235</v>
+        <v>1732</v>
       </c>
       <c r="B256" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'08','ESMERALDAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'08','ESMERALDAS');");</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1236</v>
+        <v>1733</v>
       </c>
       <c r="B257" t="str">
         <f t="shared" si="3"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'09','GUAYAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'09','GUAYAS');");</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1237</v>
+        <v>1734</v>
       </c>
       <c r="B258" t="str">
         <f t="shared" ref="B258:B321" si="4">_xlfn.CONCAT("DB::select(""",A258,""");")</f>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'10','IMBABURA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'10','IMBABURA');");</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1238</v>
+        <v>1735</v>
       </c>
       <c r="B259" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'11','LOJA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'11','LOJA');");</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1239</v>
+        <v>1736</v>
       </c>
       <c r="B260" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'12','LOS RIOS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'12','LOS RIOS');");</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1240</v>
+        <v>1737</v>
       </c>
       <c r="B261" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'13','MANABI');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'13','MANABI');");</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1241</v>
+        <v>1738</v>
       </c>
       <c r="B262" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'14','MORONA SANTIAGO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'14','MORONA SANTIAGO');");</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1242</v>
+        <v>1739</v>
       </c>
       <c r="B263" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'15','NAPO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'15','NAPO');");</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1243</v>
+        <v>1740</v>
       </c>
       <c r="B264" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'16','PASTAZA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'16','PASTAZA');");</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1244</v>
+        <v>1741</v>
       </c>
       <c r="B265" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'17','PICHINCHA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'17','PICHINCHA');");</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1245</v>
+        <v>1742</v>
       </c>
       <c r="B266" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'18','TUNGURAHUA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'18','TUNGURAHUA');");</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1246</v>
+        <v>1743</v>
       </c>
       <c r="B267" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'19','ZAMORA CHINCHIPE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'19','ZAMORA CHINCHIPE');");</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1247</v>
+        <v>1744</v>
       </c>
       <c r="B268" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'20','GALAPAGOS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'20','GALAPAGOS');");</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>1248</v>
+        <v>1745</v>
       </c>
       <c r="B269" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'21','SUCUMBIOS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'21','SUCUMBIOS');");</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1249</v>
+        <v>1746</v>
       </c>
       <c r="B270" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'22','ORELLANA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'22','ORELLANA');");</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1250</v>
+        <v>1747</v>
       </c>
       <c r="B271" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'23','SANTO DOMINGO DE LOS TSACHILAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'23','SANTO DOMINGO DE LOS TSACHILAS');");</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1251</v>
+        <v>1748</v>
       </c>
       <c r="B272" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'24','SANTA ELENA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'24','SANTA ELENA');");</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>1252</v>
+        <v>1749</v>
       </c>
       <c r="B273" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(38,56,'90','ZONAS NO DELIMITADAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(2,56,'90','ZONAS NO DELIMITADAS');");</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1253</v>
+        <v>1750</v>
       </c>
       <c r="B274" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0101','CUENCA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,249,'0101','CUENCA');");</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>1254</v>
+        <v>1751</v>
       </c>
       <c r="B275" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0102','GIRÓN');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,249,'0102','GIRÓN');");</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>1255</v>
+        <v>1752</v>
       </c>
       <c r="B276" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0103','GUALACEO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,249,'0103','GUALACEO');");</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1256</v>
+        <v>1753</v>
       </c>
       <c r="B277" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0104','NABÓN');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,249,'0104','NABÓN');");</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>1257</v>
+        <v>1754</v>
       </c>
       <c r="B278" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0105','PAUTE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,249,'0105','PAUTE');");</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>1258</v>
+        <v>1755</v>
       </c>
       <c r="B279" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0106','PUCARA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,249,'0106','PUCARA');");</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>1259</v>
+        <v>1756</v>
       </c>
       <c r="B280" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0107','SAN FERNANDO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,249,'0107','SAN FERNANDO');");</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>1260</v>
+        <v>1757</v>
       </c>
       <c r="B281" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0108','SANTA ISABEL');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,249,'0108','SANTA ISABEL');");</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1261</v>
+        <v>1758</v>
       </c>
       <c r="B282" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0109','SIGSIG');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,249,'0109','SIGSIG');");</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1262</v>
+        <v>1759</v>
       </c>
       <c r="B283" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0110','OÑA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,249,'0110','OÑA');");</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>1263</v>
+        <v>1760</v>
       </c>
       <c r="B284" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0111','CHORDELEG');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,249,'0111','CHORDELEG');");</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>1264</v>
+        <v>1761</v>
       </c>
       <c r="B285" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0112','EL PAN');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,249,'0112','EL PAN');");</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1265</v>
+        <v>1762</v>
       </c>
       <c r="B286" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0113','SEVILLA DE ORO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,249,'0113','SEVILLA DE ORO');");</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1266</v>
+        <v>1763</v>
       </c>
       <c r="B287" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0114','GUACHAPALA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,249,'0114','GUACHAPALA');");</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>1267</v>
+        <v>1764</v>
       </c>
       <c r="B288" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,249,'0115','CAMILO PONCE ENRÍQUEZ');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,249,'0115','CAMILO PONCE ENRÍQUEZ');");</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>1268</v>
+        <v>1765</v>
       </c>
       <c r="B289" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,250,'0201','GUARANDA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,250,'0201','GUARANDA');");</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>1269</v>
+        <v>1766</v>
       </c>
       <c r="B290" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,250,'0202','CHILLANES');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,250,'0202','CHILLANES');");</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1270</v>
+        <v>1767</v>
       </c>
       <c r="B291" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,250,'0203','CHIMBO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,250,'0203','CHIMBO');");</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>1271</v>
+        <v>1768</v>
       </c>
       <c r="B292" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,250,'0204','ECHEANDÍA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,250,'0204','ECHEANDÍA');");</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1272</v>
+        <v>1769</v>
       </c>
       <c r="B293" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,250,'0205','SAN MIGUEL');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,250,'0205','SAN MIGUEL');");</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>1273</v>
+        <v>1770</v>
       </c>
       <c r="B294" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,250,'0206','CALUMA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,250,'0206','CALUMA');");</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1274</v>
+        <v>1771</v>
       </c>
       <c r="B295" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,250,'0207','LAS NAVES');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,250,'0207','LAS NAVES');");</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>1275</v>
+        <v>1772</v>
       </c>
       <c r="B296" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,251,'0301','AZOGUES');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,251,'0301','AZOGUES');");</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1276</v>
+        <v>1773</v>
       </c>
       <c r="B297" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,251,'0302','BIBLIÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,251,'0302','BIBLIÁN');");</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1277</v>
+        <v>1774</v>
       </c>
       <c r="B298" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,251,'0303','CAÑAR');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,251,'0303','CAÑAR');");</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1278</v>
+        <v>1775</v>
       </c>
       <c r="B299" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,251,'0304','LA TRONCAL');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,251,'0304','LA TRONCAL');");</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>1279</v>
+        <v>1776</v>
       </c>
       <c r="B300" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,251,'0305','EL TAMBO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,251,'0305','EL TAMBO');");</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1280</v>
+        <v>1777</v>
       </c>
       <c r="B301" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,251,'0306','DÉLEG');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,251,'0306','DÉLEG');");</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>1281</v>
+        <v>1778</v>
       </c>
       <c r="B302" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,251,'0307','SUSCAL');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,251,'0307','SUSCAL');");</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1282</v>
+        <v>1779</v>
       </c>
       <c r="B303" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,252,'0401','TULCÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,252,'0401','TULCÁN');");</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>1283</v>
+        <v>1780</v>
       </c>
       <c r="B304" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,252,'0402','BOLÍVAR');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,252,'0402','BOLÍVAR');");</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1284</v>
+        <v>1781</v>
       </c>
       <c r="B305" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,252,'0403','ESPEJO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,252,'0403','ESPEJO');");</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1285</v>
+        <v>1782</v>
       </c>
       <c r="B306" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,252,'0404','MIRA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,252,'0404','MIRA');");</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>1286</v>
+        <v>1783</v>
       </c>
       <c r="B307" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,252,'0405','MONTÚFAR');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,252,'0405','MONTÚFAR');");</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1287</v>
+        <v>1784</v>
       </c>
       <c r="B308" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,252,'0406','SAN PEDRO DE HUACA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,252,'0406','SAN PEDRO DE HUACA');");</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1288</v>
+        <v>1785</v>
       </c>
       <c r="B309" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,253,'0501','LATACUNGA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,253,'0501','LATACUNGA');");</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1289</v>
+        <v>1786</v>
       </c>
       <c r="B310" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,253,'0502','LA MANÁ');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,253,'0502','LA MANÁ');");</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1290</v>
+        <v>1787</v>
       </c>
       <c r="B311" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,253,'0503','PANGUA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,253,'0503','PANGUA');");</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1291</v>
+        <v>1788</v>
       </c>
       <c r="B312" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,253,'0504','PUJILI');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,253,'0504','PUJILI');");</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>1292</v>
+        <v>1789</v>
       </c>
       <c r="B313" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,253,'0505','SALCEDO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,253,'0505','SALCEDO');");</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1293</v>
+        <v>1790</v>
       </c>
       <c r="B314" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,253,'0506','SAQUISILÍ');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,253,'0506','SAQUISILÍ');");</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>1294</v>
+        <v>1791</v>
       </c>
       <c r="B315" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,253,'0507','SIGCHOS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,253,'0507','SIGCHOS');");</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1295</v>
+        <v>1792</v>
       </c>
       <c r="B316" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0601','RIOBAMBA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,254,'0601','RIOBAMBA');");</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1296</v>
+        <v>1793</v>
       </c>
       <c r="B317" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0602','ALAUSI');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,254,'0602','ALAUSI');");</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1297</v>
+        <v>1794</v>
       </c>
       <c r="B318" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0603','COLTA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,254,'0603','COLTA');");</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1298</v>
+        <v>1795</v>
       </c>
       <c r="B319" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0604','CHAMBO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,254,'0604','CHAMBO');");</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1299</v>
+        <v>1796</v>
       </c>
       <c r="B320" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0605','CHUNCHI');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,254,'0605','CHUNCHI');");</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>1300</v>
+        <v>1797</v>
       </c>
       <c r="B321" t="str">
         <f t="shared" si="4"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0606','GUAMOTE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,254,'0606','GUAMOTE');");</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1301</v>
+        <v>1798</v>
       </c>
       <c r="B322" t="str">
         <f t="shared" ref="B322:B385" si="5">_xlfn.CONCAT("DB::select(""",A322,""");")</f>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0607','GUANO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,254,'0607','GUANO');");</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1302</v>
+        <v>1799</v>
       </c>
       <c r="B323" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0608','PALLATANGA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,254,'0608','PALLATANGA');");</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1303</v>
+        <v>1800</v>
       </c>
       <c r="B324" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0609','PENIPE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,254,'0609','PENIPE');");</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1304</v>
+        <v>1801</v>
       </c>
       <c r="B325" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,254,'0610','CUMANDÁ');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,254,'0610','CUMANDÁ');");</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1305</v>
+        <v>1802</v>
       </c>
       <c r="B326" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0701','MACHALA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,255,'0701','MACHALA');");</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1306</v>
+        <v>1803</v>
       </c>
       <c r="B327" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0702','ARENILLAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,255,'0702','ARENILLAS');");</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1307</v>
+        <v>1804</v>
       </c>
       <c r="B328" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0703','ATAHUALPA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,255,'0703','ATAHUALPA');");</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>1308</v>
+        <v>1805</v>
       </c>
       <c r="B329" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0704','BALSAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,255,'0704','BALSAS');");</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1309</v>
+        <v>1806</v>
       </c>
       <c r="B330" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0705','CHILLA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,255,'0705','CHILLA');");</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1310</v>
+        <v>1807</v>
       </c>
       <c r="B331" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0706','EL GUABO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,255,'0706','EL GUABO');");</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>1311</v>
+        <v>1808</v>
       </c>
       <c r="B332" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0707','HUAQUILLAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,255,'0707','HUAQUILLAS');");</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1312</v>
+        <v>1809</v>
       </c>
       <c r="B333" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0708','MARCABELÍ');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,255,'0708','MARCABELÍ');");</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1313</v>
+        <v>1810</v>
       </c>
       <c r="B334" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0709','PASAJE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,255,'0709','PASAJE');");</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>1314</v>
+        <v>1811</v>
       </c>
       <c r="B335" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0710','PIÑAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,255,'0710','PIÑAS');");</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1315</v>
+        <v>1812</v>
       </c>
       <c r="B336" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0711','PORTOVELO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,255,'0711','PORTOVELO');");</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1316</v>
+        <v>1813</v>
       </c>
       <c r="B337" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0712','SANTA ROSA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,255,'0712','SANTA ROSA');");</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>1317</v>
+        <v>1814</v>
       </c>
       <c r="B338" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0713','ZARUMA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,255,'0713','ZARUMA');");</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1318</v>
+        <v>1815</v>
       </c>
       <c r="B339" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,255,'0714','LAS LAJAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,255,'0714','LAS LAJAS');");</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1319</v>
+        <v>1816</v>
       </c>
       <c r="B340" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0801','ESMERALDAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,256,'0801','ESMERALDAS');");</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1320</v>
+        <v>1817</v>
       </c>
       <c r="B341" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0802','ELOY ALFARO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,256,'0802','ELOY ALFARO');");</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>1321</v>
+        <v>1818</v>
       </c>
       <c r="B342" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0803','MUISNE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,256,'0803','MUISNE');");</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1322</v>
+        <v>1819</v>
       </c>
       <c r="B343" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0804','QUININDÉ');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,256,'0804','QUININDÉ');");</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>1323</v>
+        <v>1820</v>
       </c>
       <c r="B344" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0805','SAN LORENZO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,256,'0805','SAN LORENZO');");</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1324</v>
+        <v>1821</v>
       </c>
       <c r="B345" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0806','ATACAMES');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,256,'0806','ATACAMES');");</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>1325</v>
+        <v>1822</v>
       </c>
       <c r="B346" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0807','RIOVERDE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,256,'0807','RIOVERDE');");</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>1326</v>
+        <v>1823</v>
       </c>
       <c r="B347" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,256,'0808','LA CONCORDIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,256,'0808','LA CONCORDIA');");</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>1327</v>
+        <v>1824</v>
       </c>
       <c r="B348" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0901','GUAYAQUIL');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0901','GUAYAQUIL');");</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1328</v>
+        <v>1825</v>
       </c>
       <c r="B349" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0902','EDO BAQUERIZO MORENO (JU');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0902','EDO BAQUERIZO MORENO (JU');");</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1329</v>
+        <v>1826</v>
       </c>
       <c r="B350" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0903','BALAO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0903','BALAO');");</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>1330</v>
+        <v>1827</v>
       </c>
       <c r="B351" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0904','BALZAR');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0904','BALZAR');");</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1331</v>
+        <v>1828</v>
       </c>
       <c r="B352" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0905','COLIMES');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0905','COLIMES');");</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>1332</v>
+        <v>1829</v>
       </c>
       <c r="B353" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0906','DAULE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0906','DAULE');");</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1333</v>
+        <v>1830</v>
       </c>
       <c r="B354" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0907','DURÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0907','DURÁN');");</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1334</v>
+        <v>1831</v>
       </c>
       <c r="B355" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0908','EL EMPALME');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0908','EL EMPALME');");</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1335</v>
+        <v>1832</v>
       </c>
       <c r="B356" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0909','EL TRIUNFO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0909','EL TRIUNFO');");</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1336</v>
+        <v>1833</v>
       </c>
       <c r="B357" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0910','MILAGRO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0910','MILAGRO');");</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1337</v>
+        <v>1834</v>
       </c>
       <c r="B358" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0911','NARANJAL');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0911','NARANJAL');");</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1338</v>
+        <v>1835</v>
       </c>
       <c r="B359" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0912','NARANJITO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0912','NARANJITO');");</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1339</v>
+        <v>1836</v>
       </c>
       <c r="B360" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0913','PALESTINA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0913','PALESTINA');");</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>1340</v>
+        <v>1837</v>
       </c>
       <c r="B361" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0914','PEDRO CARBO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0914','PEDRO CARBO');");</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1341</v>
+        <v>1838</v>
       </c>
       <c r="B362" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0915','SAMBORONDÓN');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0915','SAMBORONDÓN');");</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1342</v>
+        <v>1839</v>
       </c>
       <c r="B363" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0916','SANTA LUCÍA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0916','SANTA LUCÍA');");</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1343</v>
+        <v>1840</v>
       </c>
       <c r="B364" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0917','SALITRE (URBINA JADO)');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0917','SALITRE (URBINA JADO)');");</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1344</v>
+        <v>1841</v>
       </c>
       <c r="B365" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0918','SAN JACINTO DE YAGUACHI');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0918','SAN JACINTO DE YAGUACHI');");</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1345</v>
+        <v>1842</v>
       </c>
       <c r="B366" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0919','PLAYAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0919','PLAYAS');");</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1346</v>
+        <v>1843</v>
       </c>
       <c r="B367" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0920','SIMÓN BOLÍVAR');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0920','SIMÓN BOLÍVAR');");</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1347</v>
+        <v>1844</v>
       </c>
       <c r="B368" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0921','RONEL MARCELINO MARIDUE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0921','RONEL MARCELINO MARIDUE');");</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1348</v>
+        <v>1845</v>
       </c>
       <c r="B369" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0922','LOMAS DE SARGENTILLO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0922','LOMAS DE SARGENTILLO');");</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1349</v>
+        <v>1846</v>
       </c>
       <c r="B370" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0923','NOBOL');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0923','NOBOL');");</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1350</v>
+        <v>1847</v>
       </c>
       <c r="B371" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0924','GENERAL ANTONIO ELIZALDE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0924','GENERAL ANTONIO ELIZALDE');");</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1351</v>
+        <v>1848</v>
       </c>
       <c r="B372" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,257,'0925','ISIDRO AYORA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,257,'0925','ISIDRO AYORA');");</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1352</v>
+        <v>1849</v>
       </c>
       <c r="B373" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,258,'1001','IBARRA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,258,'1001','IBARRA');");</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1353</v>
+        <v>1850</v>
       </c>
       <c r="B374" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,258,'1002','ANTONIO ANTE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,258,'1002','ANTONIO ANTE');");</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1354</v>
+        <v>1851</v>
       </c>
       <c r="B375" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,258,'1003','COTACACHI');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,258,'1003','COTACACHI');");</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1355</v>
+        <v>1852</v>
       </c>
       <c r="B376" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,258,'1004','OTAVALO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,258,'1004','OTAVALO');");</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1356</v>
+        <v>1853</v>
       </c>
       <c r="B377" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,258,'1005','PIMAMPIRO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,258,'1005','PIMAMPIRO');");</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1357</v>
+        <v>1854</v>
       </c>
       <c r="B378" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,258,'1006','SAN MIGUEL DE URCUQUÍ');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,258,'1006','SAN MIGUEL DE URCUQUÍ');");</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1358</v>
+        <v>1855</v>
       </c>
       <c r="B379" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1107','LOJA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1107','LOJA');");</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1359</v>
+        <v>1856</v>
       </c>
       <c r="B380" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1108','CALVAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1108','CALVAS');");</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1360</v>
+        <v>1857</v>
       </c>
       <c r="B381" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1109','CATAMAYO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1109','CATAMAYO');");</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1361</v>
+        <v>1858</v>
       </c>
       <c r="B382" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1110','CELICA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1110','CELICA');");</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1362</v>
+        <v>1859</v>
       </c>
       <c r="B383" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1111','CHAGUARPAMBA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1111','CHAGUARPAMBA');");</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1363</v>
+        <v>1860</v>
       </c>
       <c r="B384" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1112','ESPÍNDOLA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1112','ESPÍNDOLA');");</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1364</v>
+        <v>1861</v>
       </c>
       <c r="B385" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1113','GONZANAMÁ');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1113','GONZANAMÁ');");</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1365</v>
+        <v>1862</v>
       </c>
       <c r="B386" t="str">
         <f t="shared" ref="B386:B449" si="6">_xlfn.CONCAT("DB::select(""",A386,""");")</f>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1114','MACARÁ');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1114','MACARÁ');");</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1366</v>
+        <v>1863</v>
       </c>
       <c r="B387" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1115','PALTAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1115','PALTAS');");</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1367</v>
+        <v>1864</v>
       </c>
       <c r="B388" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1116','PUYANGO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1116','PUYANGO');");</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1368</v>
+        <v>1865</v>
       </c>
       <c r="B389" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1117','SARAGURO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1117','SARAGURO');");</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1369</v>
+        <v>1866</v>
       </c>
       <c r="B390" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1118','SOZORANGA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1118','SOZORANGA');");</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1370</v>
+        <v>1867</v>
       </c>
       <c r="B391" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1119','ZAPOTILLO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1119','ZAPOTILLO');");</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1371</v>
+        <v>1868</v>
       </c>
       <c r="B392" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1120','PINDAL');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1120','PINDAL');");</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1372</v>
+        <v>1869</v>
       </c>
       <c r="B393" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1121','QUILANGA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1121','QUILANGA');");</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1373</v>
+        <v>1870</v>
       </c>
       <c r="B394" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,259,'1122','OLMEDO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,259,'1122','OLMEDO');");</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1374</v>
+        <v>1871</v>
       </c>
       <c r="B395" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1201','BABAHOYO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,260,'1201','BABAHOYO');");</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1375</v>
+        <v>1872</v>
       </c>
       <c r="B396" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1202','BABA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,260,'1202','BABA');");</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1376</v>
+        <v>1873</v>
       </c>
       <c r="B397" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1203','MONTALVO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,260,'1203','MONTALVO');");</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1377</v>
+        <v>1874</v>
       </c>
       <c r="B398" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1204','PUEBLOVIEJO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,260,'1204','PUEBLOVIEJO');");</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1378</v>
+        <v>1875</v>
       </c>
       <c r="B399" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1205','QUEVEDO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,260,'1205','QUEVEDO');");</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1379</v>
+        <v>1876</v>
       </c>
       <c r="B400" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1206','URDANETA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,260,'1206','URDANETA');");</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1380</v>
+        <v>1877</v>
       </c>
       <c r="B401" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1207','VENTANAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,260,'1207','VENTANAS');");</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1381</v>
+        <v>1878</v>
       </c>
       <c r="B402" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1208','VÍNCES');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,260,'1208','VÍNCES');");</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1382</v>
+        <v>1879</v>
       </c>
       <c r="B403" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1209','PALENQUE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,260,'1209','PALENQUE');");</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1383</v>
+        <v>1880</v>
       </c>
       <c r="B404" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1210','BUENA FÉ');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,260,'1210','BUENA FÉ');");</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1384</v>
+        <v>1881</v>
       </c>
       <c r="B405" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1211','VALENCIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,260,'1211','VALENCIA');");</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1385</v>
+        <v>1882</v>
       </c>
       <c r="B406" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1212','MOCACHE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,260,'1212','MOCACHE');");</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>1386</v>
+        <v>1883</v>
       </c>
       <c r="B407" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,260,'1213','QUINSALOMA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,260,'1213','QUINSALOMA');");</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1387</v>
+        <v>1884</v>
       </c>
       <c r="B408" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1301','PORTOVIEJO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1301','PORTOVIEJO');");</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1388</v>
+        <v>1885</v>
       </c>
       <c r="B409" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1302','BOLÍVAR');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1302','BOLÍVAR');");</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1389</v>
+        <v>1886</v>
       </c>
       <c r="B410" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1303','CHONE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1303','CHONE');");</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1390</v>
+        <v>1887</v>
       </c>
       <c r="B411" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1304','EL CARMEN');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1304','EL CARMEN');");</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>1391</v>
+        <v>1888</v>
       </c>
       <c r="B412" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1305','FLAVIO ALFARO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1305','FLAVIO ALFARO');");</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1392</v>
+        <v>1889</v>
       </c>
       <c r="B413" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1306','JIPIJAPA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1306','JIPIJAPA');");</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1393</v>
+        <v>1890</v>
       </c>
       <c r="B414" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1307','JUNÍN');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1307','JUNÍN');");</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>1394</v>
+        <v>1891</v>
       </c>
       <c r="B415" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1308','MANTA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1308','MANTA');");</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>1395</v>
+        <v>1892</v>
       </c>
       <c r="B416" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1309','MONTECRISTI');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1309','MONTECRISTI');");</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1396</v>
+        <v>1893</v>
       </c>
       <c r="B417" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1310','PAJÁN');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1310','PAJÁN');");</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1397</v>
+        <v>1894</v>
       </c>
       <c r="B418" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1311','PICHINCHA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1311','PICHINCHA');");</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1398</v>
+        <v>1895</v>
       </c>
       <c r="B419" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1312','ROCAFUERTE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1312','ROCAFUERTE');");</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1399</v>
+        <v>1896</v>
       </c>
       <c r="B420" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1313','SANTA ANA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1313','SANTA ANA');");</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>1400</v>
+        <v>1897</v>
       </c>
       <c r="B421" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1314','SUCRE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1314','SUCRE');");</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1401</v>
+        <v>1898</v>
       </c>
       <c r="B422" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1315','TOSAGUA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1315','TOSAGUA');");</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>1402</v>
+        <v>1899</v>
       </c>
       <c r="B423" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1316','24 DE MAYO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1316','24 DE MAYO');");</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1403</v>
+        <v>1900</v>
       </c>
       <c r="B424" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1317','PEDERNALES');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1317','PEDERNALES');");</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1404</v>
+        <v>1901</v>
       </c>
       <c r="B425" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1318','OLMEDO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1318','OLMEDO');");</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>1405</v>
+        <v>1902</v>
       </c>
       <c r="B426" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1319','PUERTO LÓPEZ');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1319','PUERTO LÓPEZ');");</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1406</v>
+        <v>1903</v>
       </c>
       <c r="B427" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1320','JAMA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1320','JAMA');");</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1407</v>
+        <v>1904</v>
       </c>
       <c r="B428" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1321','JARAMIJÓ');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1321','JARAMIJÓ');");</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1408</v>
+        <v>1905</v>
       </c>
       <c r="B429" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,261,'1322','SAN VICENTE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,261,'1322','SAN VICENTE');");</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1409</v>
+        <v>1906</v>
       </c>
       <c r="B430" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1401','MORONA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,262,'1401','MORONA');");</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1410</v>
+        <v>1907</v>
       </c>
       <c r="B431" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1402','GUALAQUIZA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,262,'1402','GUALAQUIZA');");</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1411</v>
+        <v>1908</v>
       </c>
       <c r="B432" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1403','LIMÓN INDANZA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,262,'1403','LIMÓN INDANZA');");</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1412</v>
+        <v>1909</v>
       </c>
       <c r="B433" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1404','PALORA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,262,'1404','PALORA');");</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1413</v>
+        <v>1910</v>
       </c>
       <c r="B434" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1405','SANTIAGO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,262,'1405','SANTIAGO');");</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1414</v>
+        <v>1911</v>
       </c>
       <c r="B435" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1406','SUCÚA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,262,'1406','SUCÚA');");</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1415</v>
+        <v>1912</v>
       </c>
       <c r="B436" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1407','HUAMBOYA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,262,'1407','HUAMBOYA');");</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>1416</v>
+        <v>1913</v>
       </c>
       <c r="B437" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1408','SAN JUAN BOSCO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,262,'1408','SAN JUAN BOSCO');");</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1417</v>
+        <v>1914</v>
       </c>
       <c r="B438" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1409','TAISHA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,262,'1409','TAISHA');");</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1418</v>
+        <v>1915</v>
       </c>
       <c r="B439" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1410','LOGROÑO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,262,'1410','LOGROÑO');");</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1419</v>
+        <v>1916</v>
       </c>
       <c r="B440" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1411','PABLO SEXTO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,262,'1411','PABLO SEXTO');");</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1420</v>
+        <v>1917</v>
       </c>
       <c r="B441" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,262,'1412','TIWINTZA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,262,'1412','TIWINTZA');");</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1421</v>
+        <v>1918</v>
       </c>
       <c r="B442" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,263,'1501','TENA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,263,'1501','TENA');");</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1422</v>
+        <v>1919</v>
       </c>
       <c r="B443" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,263,'1502','ARCHIDONA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,263,'1502','ARCHIDONA');");</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1423</v>
+        <v>1920</v>
       </c>
       <c r="B444" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,263,'1503','EL CHACO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,263,'1503','EL CHACO');");</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1424</v>
+        <v>1921</v>
       </c>
       <c r="B445" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,263,'1504','QUIJOS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,263,'1504','QUIJOS');");</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1425</v>
+        <v>1922</v>
       </c>
       <c r="B446" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,263,'1505','ARLOS JULIO AROSEMENA TOL');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,263,'1505','ARLOS JULIO AROSEMENA TOL');");</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1426</v>
+        <v>1923</v>
       </c>
       <c r="B447" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,264,'1601','PASTAZA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,264,'1601','PASTAZA');");</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1427</v>
+        <v>1924</v>
       </c>
       <c r="B448" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,264,'1602','MERA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,264,'1602','MERA');");</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1428</v>
+        <v>1925</v>
       </c>
       <c r="B449" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,264,'1603','SANTA CLARA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,264,'1603','SANTA CLARA');");</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1429</v>
+        <v>1926</v>
       </c>
       <c r="B450" t="str">
         <f t="shared" ref="B450:B497" si="7">_xlfn.CONCAT("DB::select(""",A450,""");")</f>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,264,'1604','ARAJUNO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,264,'1604','ARAJUNO');");</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1430</v>
+        <v>1927</v>
       </c>
       <c r="B451" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1701','QUITO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,265,'1701','QUITO');");</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1431</v>
+        <v>1928</v>
       </c>
       <c r="B452" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1702','CAYAMBE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,265,'1702','CAYAMBE');");</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1432</v>
+        <v>1929</v>
       </c>
       <c r="B453" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1703','MEJIA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,265,'1703','MEJIA');");</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1433</v>
+        <v>1930</v>
       </c>
       <c r="B454" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1704','PEDRO MONCAYO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,265,'1704','PEDRO MONCAYO');");</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1434</v>
+        <v>1931</v>
       </c>
       <c r="B455" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1705','RUMIÑAHUI');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,265,'1705','RUMIÑAHUI');");</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1435</v>
+        <v>1932</v>
       </c>
       <c r="B456" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1706','SAN MIGUEL DE LOS BANCOS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,265,'1706','SAN MIGUEL DE LOS BANCOS');");</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1436</v>
+        <v>1933</v>
       </c>
       <c r="B457" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1707','PEDRO VICENTE MALDONADO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,265,'1707','PEDRO VICENTE MALDONADO');");</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1437</v>
+        <v>1934</v>
       </c>
       <c r="B458" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,265,'1708','PUERTO QUITO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,265,'1708','PUERTO QUITO');");</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1438</v>
+        <v>1935</v>
       </c>
       <c r="B459" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1801','AMBATO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,266,'1801','AMBATO');");</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1439</v>
+        <v>1936</v>
       </c>
       <c r="B460" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1802','BAÑOS DE AGUA SANTA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,266,'1802','BAÑOS DE AGUA SANTA');");</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1440</v>
+        <v>1937</v>
       </c>
       <c r="B461" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1803','CEVALLOS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,266,'1803','CEVALLOS');");</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1441</v>
+        <v>1938</v>
       </c>
       <c r="B462" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1804','MOCHA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,266,'1804','MOCHA');");</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1442</v>
+        <v>1939</v>
       </c>
       <c r="B463" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1805','PATATE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,266,'1805','PATATE');");</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1443</v>
+        <v>1940</v>
       </c>
       <c r="B464" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1806','QUERO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,266,'1806','QUERO');");</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1444</v>
+        <v>1941</v>
       </c>
       <c r="B465" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1807','SAN PEDRO DE PELILEO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,266,'1807','SAN PEDRO DE PELILEO');");</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1445</v>
+        <v>1942</v>
       </c>
       <c r="B466" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1808','SANTIAGO DE PÍLLARO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,266,'1808','SANTIAGO DE PÍLLARO');");</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1446</v>
+        <v>1943</v>
       </c>
       <c r="B467" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,266,'1809','TISALEO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,266,'1809','TISALEO');");</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1447</v>
+        <v>1944</v>
       </c>
       <c r="B468" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1901','ZAMORA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,267,'1901','ZAMORA');");</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1448</v>
+        <v>1945</v>
       </c>
       <c r="B469" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1902','CHINCHIPE');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,267,'1902','CHINCHIPE');");</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1449</v>
+        <v>1946</v>
       </c>
       <c r="B470" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1903','NANGARITZA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,267,'1903','NANGARITZA');");</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1450</v>
+        <v>1947</v>
       </c>
       <c r="B471" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1904','YACUAMBI');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,267,'1904','YACUAMBI');");</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1451</v>
+        <v>1948</v>
       </c>
       <c r="B472" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1905','YANTZAZA (YANZATZA)');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,267,'1905','YANTZAZA (YANZATZA)');");</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1452</v>
+        <v>1949</v>
       </c>
       <c r="B473" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1906','EL PANGUI');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,267,'1906','EL PANGUI');");</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1453</v>
+        <v>1950</v>
       </c>
       <c r="B474" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1907','CENTINELA DEL CÓNDOR');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,267,'1907','CENTINELA DEL CÓNDOR');");</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1454</v>
+        <v>1951</v>
       </c>
       <c r="B475" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1908','PALANDA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,267,'1908','PALANDA');");</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1455</v>
+        <v>1952</v>
       </c>
       <c r="B476" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,267,'1909','PAQUISHA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,267,'1909','PAQUISHA');");</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1456</v>
+        <v>1953</v>
       </c>
       <c r="B477" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,268,'2001','SAN CRISTÓBAL');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,268,'2001','SAN CRISTÓBAL');");</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1457</v>
+        <v>1954</v>
       </c>
       <c r="B478" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,268,'2002','ISABELA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,268,'2002','ISABELA');");</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1458</v>
+        <v>1955</v>
       </c>
       <c r="B479" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,268,'2003','SANTA CRUZ');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,268,'2003','SANTA CRUZ');");</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1459</v>
+        <v>1956</v>
       </c>
       <c r="B480" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,269,'2101','LAGO AGRIO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,269,'2101','LAGO AGRIO');");</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1460</v>
+        <v>1957</v>
       </c>
       <c r="B481" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,269,'2102','GONZALO PIZARRO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,269,'2102','GONZALO PIZARRO');");</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1461</v>
+        <v>1958</v>
       </c>
       <c r="B482" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,269,'2103','PUTUMAYO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,269,'2103','PUTUMAYO');");</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1462</v>
+        <v>1959</v>
       </c>
       <c r="B483" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,269,'2104','SHUSHUFINDI');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,269,'2104','SHUSHUFINDI');");</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1463</v>
+        <v>1960</v>
       </c>
       <c r="B484" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,269,'2105','SUCUMBÍOS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,269,'2105','SUCUMBÍOS');");</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1464</v>
+        <v>1961</v>
       </c>
       <c r="B485" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,269,'2106','CASCALES');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,269,'2106','CASCALES');");</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1465</v>
+        <v>1962</v>
       </c>
       <c r="B486" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,269,'2107','CUYABENO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,269,'2107','CUYABENO');");</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1466</v>
+        <v>1963</v>
       </c>
       <c r="B487" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,270,'2201','ORELLANA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,270,'2201','ORELLANA');");</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1467</v>
+        <v>1964</v>
       </c>
       <c r="B488" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,270,'2202','AGUARICO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,270,'2202','AGUARICO');");</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1468</v>
+        <v>1965</v>
       </c>
       <c r="B489" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,270,'2203','LA JOYA DE LOS SACHAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,270,'2203','LA JOYA DE LOS SACHAS');");</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1469</v>
+        <v>1966</v>
       </c>
       <c r="B490" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,270,'2204','LORETO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,270,'2204','LORETO');");</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1470</v>
+        <v>1967</v>
       </c>
       <c r="B491" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,271,'2301','SANTO DOMINGO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,271,'2301','SANTO DOMINGO');");</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1471</v>
+        <v>1968</v>
       </c>
       <c r="B492" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,272,'2401','SANTA ELENA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,272,'2401','SANTA ELENA');");</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1472</v>
+        <v>1969</v>
       </c>
       <c r="B493" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,272,'2402','LA LIBERTAD');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,272,'2402','LA LIBERTAD');");</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1473</v>
+        <v>1970</v>
       </c>
       <c r="B494" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,272,'2403','SALINAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,272,'2403','SALINAS');");</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1474</v>
+        <v>1971</v>
       </c>
       <c r="B495" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,273,'9001','LAS GOLONDRINAS');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,273,'9001','LAS GOLONDRINAS');");</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1475</v>
+        <v>1972</v>
       </c>
       <c r="B496" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,273,'9002','MANGA DEL CURA');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,273,'9002','MANGA DEL CURA');");</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1476</v>
+        <v>1973</v>
       </c>
       <c r="B497" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(39,273,'9003','EL PIEDRERO');");</v>
+        <v>DB::select("insert into app.locations(type_id,parent_id,code,name) values(3,273,'9003','EL PIEDRERO');");</v>
       </c>
     </row>
   </sheetData>
